--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhijit\Desktop\GenAI2k24\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A29677-BDF7-4DAE-A4DF-C3882B3B0010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD6D965-F19B-44F2-9AD0-B2C9870952AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9D041FC-42EA-4C23-BA13-1879272C2E20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E95A081B-BAA5-42FD-B5F6-4DF83754500D}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Indian Institute of Engineering" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="563">
   <si>
     <t>User Name</t>
   </si>
@@ -208,1005 +208,1011 @@
     <t>https://www.cloudskillsboost.google/public_profiles/8e2e9afb-345e-4718-bde7-88b05a4a70f9</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Akash Shaw</t>
+  </si>
+  <si>
+    <t>iamakashtechie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/730776de-a9ef-4a82-8bff-204f441fb44d</t>
+  </si>
+  <si>
+    <t>Aaratrika Sarkar</t>
+  </si>
+  <si>
+    <t>deyawhatsapp@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34aabe6a-b515-4915-b808-1ce55df27a3f</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mohammad Arafat Hussain</t>
+  </si>
+  <si>
+    <t>arafatjams2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/71386a30-9974-490d-a673-270653ad2098</t>
+  </si>
+  <si>
+    <t>Ahana Ganguly</t>
+  </si>
+  <si>
+    <t>2023etb012.ahana@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0c481726-4f2d-4014-9e37-084bdf13d473</t>
+  </si>
+  <si>
+    <t>Sumit Kumar</t>
+  </si>
+  <si>
+    <t>sumitkr.iiests@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fdfffd7f-77cf-4046-bb3a-cc12b781508d</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sarthak Singh</t>
+  </si>
+  <si>
+    <t>its23.sar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6084e0f7-aab4-4ae1-9e1b-99c62d593947</t>
+  </si>
+  <si>
+    <t>Shailesh Kumar</t>
+  </si>
+  <si>
+    <t>2023meb030.shailesh@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d82b1d8-c1a4-42a4-803d-2e3e4c62e5f0</t>
+  </si>
+  <si>
+    <t>Sudipta Dhar</t>
+  </si>
+  <si>
+    <t>sudiptodhar30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12627f23-75c7-4ac9-84a2-13fb86e486b5</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Harsh Prasad</t>
+  </si>
+  <si>
+    <t>hp.prasadharsh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/72aff046-786d-43ce-aa84-5559b0cad480</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>iamakashtechie.genai2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ba2fa9f4-be0c-4a14-88fd-a85f8dd1bde0</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Wadadare Piyush Rajendra</t>
+  </si>
+  <si>
+    <t>wadadarepiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d7f5622a-1532-416a-952f-2132ce32cc3a</t>
+  </si>
+  <si>
+    <t>shaileshkumarj2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/538e38d4-73c2-4cd0-9710-dfd783386748</t>
+  </si>
+  <si>
+    <t>Harsh Kumar Sah</t>
+  </si>
+  <si>
+    <t>sahharsh787@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4815e3c5-5cb8-499d-92be-455f448252a3</t>
+  </si>
+  <si>
+    <t>sarthak23062003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/df60ec1d-69de-427f-82d5-651ae75322b5</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>anki95kr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5bef10aa-518b-48d2-b506-e02d1b520d12</t>
+  </si>
+  <si>
+    <t>Divyansh Srivastav</t>
+  </si>
+  <si>
+    <t>srivastavmohit9876@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/84bba77a-b11b-4fe5-b56e-8f7c60f5be7f</t>
+  </si>
+  <si>
+    <t>Ankit kumar</t>
+  </si>
+  <si>
+    <t>ankitmishra0917@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7cbdc2e4-060a-4114-bdd6-33cae60f2ed7</t>
+  </si>
+  <si>
+    <t>Ayush Dutta</t>
+  </si>
+  <si>
+    <t>ayushiiestsgdsc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b8a5831f-ffbe-42d4-aaaa-b1ada5b20261</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mehul Mehta</t>
+  </si>
+  <si>
+    <t>mehulmehta17113346@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f3a03eea-56c9-4c79-8bdd-235bf7845f2c</t>
+  </si>
+  <si>
+    <t>Yasharth Shukla</t>
+  </si>
+  <si>
+    <t>yasharthshukla01@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ed886629-dd50-40ee-bb40-b6c1f65e55ca</t>
+  </si>
+  <si>
+    <t>Devojeet Vyapari</t>
+  </si>
+  <si>
+    <t>2024meb069.devojeet@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b91d8349-cc06-4d77-b972-d7b65a64fb9c</t>
+  </si>
+  <si>
+    <t>Ashika Shaw</t>
+  </si>
+  <si>
+    <t>ashikashaw1505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/37489f87-bf04-4275-822d-8e9d717f77f8</t>
+  </si>
+  <si>
+    <t>Rupak Jana</t>
+  </si>
+  <si>
+    <t>studyrupakh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6f115d34-bccc-4e6a-9e2e-8f52bad7f4c9</t>
+  </si>
+  <si>
+    <t>Arham Owais</t>
+  </si>
+  <si>
+    <t>arham2004.owais@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/40f80402-d840-464d-b082-f821c841c2ae</t>
+  </si>
+  <si>
+    <t>SANTOSH</t>
+  </si>
+  <si>
+    <t>santosh.csb084.mail@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c3569fd0-b38c-433a-ae29-ee2a0b7a155d</t>
+  </si>
+  <si>
+    <t>Vipin Kumar Chaudhary</t>
+  </si>
+  <si>
+    <t>vipinjietb070@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6bef4b12-e47b-444f-8d07-6b6156220332</t>
+  </si>
+  <si>
+    <t>Tapash Jaiswal</t>
+  </si>
+  <si>
+    <t>2023csb046.tapash@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a1fae5ef-1abe-4cc2-bd0e-08b58b4bd757</t>
+  </si>
+  <si>
+    <t>Soureen karmakar</t>
+  </si>
+  <si>
+    <t>2023itb075.soureen@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6ec301b6-6525-4b13-9129-767e3e3a5a13</t>
+  </si>
+  <si>
+    <t>Ankur Mukherjee</t>
+  </si>
+  <si>
+    <t>mukherjeeankur0073@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6de2f67f-45c2-4f89-9230-ac8a4e3ae631</t>
+  </si>
+  <si>
+    <t>Vaibhav Singh</t>
+  </si>
+  <si>
+    <t>vaibhavdmcsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e7594041-90e9-41fc-9e18-a874c20a39fe</t>
+  </si>
+  <si>
+    <t>Subhoshri Pal</t>
+  </si>
+  <si>
+    <t>cordeliaherondale720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c4075567-e71b-4582-a195-a3f01034b09d</t>
+  </si>
+  <si>
+    <t>Tejas Pawar</t>
+  </si>
+  <si>
+    <t>tejaspawar62689@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56b0a492-2b0f-49c7-ab41-35f1e47f7fdd</t>
+  </si>
+  <si>
+    <t>Abhinn Prakash Yadav</t>
+  </si>
+  <si>
+    <t>abhinnprakashyadav@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cea61356-74ac-4e83-9ea5-43347b36b11b</t>
+  </si>
+  <si>
+    <t>Abhideep Choubey</t>
+  </si>
+  <si>
+    <t>cutehandsomechokhra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9fcf70a6-3f49-4f6c-9e96-bb06fc5f0b40</t>
+  </si>
+  <si>
+    <t>Chaitanya Gupta</t>
+  </si>
+  <si>
+    <t>manishagupta270678@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f09d7a5-a57e-4457-8320-34b3ff010a29</t>
+  </si>
+  <si>
+    <t>Rohit Hansda</t>
+  </si>
+  <si>
+    <t>codersevix@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/84076072-65ba-4807-9c3e-db805a9161bb</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sayan Roy</t>
+  </si>
+  <si>
+    <t>sayanroy7987@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7f7a1e60-e060-4abf-b410-967feb69f707?locale=tr</t>
+  </si>
+  <si>
+    <t>Shivam Kumar</t>
+  </si>
+  <si>
+    <t>2024ceb003.shivam@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/05b4a896-90e4-4f19-b774-8c2e382252b7</t>
+  </si>
+  <si>
+    <t>Shalu Kumari</t>
+  </si>
+  <si>
+    <t>shalukumari93129@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5273167f-46fc-4763-88d5-708739b375ac</t>
+  </si>
+  <si>
+    <t>Anshita</t>
+  </si>
+  <si>
+    <t>mishraanshita990@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6386c175-2bae-4232-b2e7-590c5554daeb</t>
+  </si>
+  <si>
+    <t>Tejash Kapoor</t>
+  </si>
+  <si>
+    <t>kapoortejash7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/42a3f618-b316-42de-b857-dd1e080c9323</t>
+  </si>
+  <si>
+    <t>Pritam Mondal</t>
+  </si>
+  <si>
+    <t>2022itb066.pritam@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a5316abd-6d6e-49f4-9b2c-22afb7ab7aaa</t>
+  </si>
+  <si>
+    <t>GAURAV KUMAR</t>
+  </si>
+  <si>
+    <t>grvboost@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b85ef202-b1d9-4aa7-9608-f82e106a45c4</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ayush Kumar</t>
+  </si>
+  <si>
+    <t>ayushkumar.iiests@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c060500c-cdba-4d63-8a84-e0fa4eca989f</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jayant Balkrishna Dhakate</t>
+  </si>
+  <si>
+    <t>2023amb034.jayant@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e7d5536-27a1-465a-8c73-5cd92cd9338a</t>
+  </si>
+  <si>
+    <t>Yash Avinash Mahajan</t>
+  </si>
+  <si>
+    <t>pheonixnightshade521@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e23b24fc-0c2c-4ee1-963b-111b227815fc</t>
+  </si>
+  <si>
+    <t>Ananta</t>
+  </si>
+  <si>
+    <t>anantapandey0411@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f799a4a4-d4d7-4126-adb5-01f3db65d2ec</t>
+  </si>
+  <si>
+    <t>Sagnik Jana</t>
+  </si>
+  <si>
+    <t>janasagnik66@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17f9da92-f7d7-49e8-b5d8-861fa5fc15b3</t>
+  </si>
+  <si>
+    <t>Swarnima Kumari</t>
+  </si>
+  <si>
+    <t>professionalworkmanage321@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e79bf61-0986-4397-98d3-266da50764f3</t>
+  </si>
+  <si>
+    <t>Manik</t>
+  </si>
+  <si>
+    <t>sheoranmanik@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3813f01e-219b-4902-8884-3558dedcd697</t>
+  </si>
+  <si>
+    <t>Goutam Samanta</t>
+  </si>
+  <si>
+    <t>nemaisamanta30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/371027ef-0b0c-43c7-9cba-064f5d0aa32f</t>
+  </si>
+  <si>
+    <t>Abhirup Saha</t>
+  </si>
+  <si>
+    <t>abhi06622@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2f6f0a8-4eba-45ac-baa4-6dfcadc60ac6</t>
+  </si>
+  <si>
+    <t>Uttam Mahata</t>
+  </si>
+  <si>
+    <t>mahatauttam2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9b49d841-1db9-4d55-988f-fdf6bdd6a557</t>
+  </si>
+  <si>
+    <t>Ramkrishna kumar</t>
+  </si>
+  <si>
+    <t>kramkrishna121@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/aa090534-9cba-42e5-abe1-edffb1fa81bf</t>
+  </si>
+  <si>
+    <t>Diya Ghosh</t>
+  </si>
+  <si>
+    <t>diya1692005ne@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/26bf1c95-c66e-4a83-bcea-dd684c86fac1</t>
+  </si>
+  <si>
+    <t>Mansi Mehra</t>
+  </si>
+  <si>
+    <t>mansi2004mehra18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c5166d9d-a202-4f09-84c4-1238317c310b</t>
+  </si>
+  <si>
+    <t>Sumana Dangar</t>
+  </si>
+  <si>
+    <t>dangarsumana05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2f66d76c-3462-46d5-9631-57511e814dfa</t>
+  </si>
+  <si>
+    <t>Ayush Ranjan</t>
+  </si>
+  <si>
+    <t>2023itb105.ayush@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fe317b04-31d5-4852-aa60-915a52a519a0</t>
+  </si>
+  <si>
+    <t>Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Amit Kiran Das</t>
+  </si>
+  <si>
+    <t>dasamitkiran10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1e069491-765c-4200-b7c9-68d1d2753639</t>
+  </si>
+  <si>
+    <t>Harsh Raj Gupta</t>
+  </si>
+  <si>
+    <t>hrg.genai@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e9106dfb-be62-40b4-b8ba-c467559373ac</t>
+  </si>
+  <si>
+    <t>harshh.raj.gupta@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d04c2db-ae44-4ab0-a357-102c96009fa4</t>
+  </si>
+  <si>
+    <t>Abhradeep Kayal</t>
+  </si>
+  <si>
+    <t>kayal.abhradeep04@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/aee7f200-c62b-4b79-82e9-57f66a75ba2d</t>
+  </si>
+  <si>
+    <t>Aditya Shaw</t>
+  </si>
+  <si>
+    <t>adityawcode@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c4e8b98b-826e-495a-a234-3ce32f33c997</t>
+  </si>
+  <si>
+    <t>Subhrajyoti Sarkar</t>
+  </si>
+  <si>
+    <t>subhrajyotisarkar507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0d744899-d2db-419e-8e30-f34dae91f218</t>
+  </si>
+  <si>
+    <t>Pritam Paul</t>
+  </si>
+  <si>
+    <t>pritamcloudoct24@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ec99f0b-6fa7-44ba-bacb-cd8a2c321e9b</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Abhishek kumar</t>
+  </si>
+  <si>
+    <t>abhishek21021042@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8f7dffe3-70c4-4545-af02-ac2d6f3c2b92</t>
+  </si>
+  <si>
+    <t>Anish Kumar</t>
+  </si>
+  <si>
+    <t>anishku6181@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/997b9729-c6e8-4b3f-ac85-a633beece8c0</t>
+  </si>
+  <si>
+    <t>Tirtha Halder</t>
+  </si>
+  <si>
+    <t>tirthagenai24@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/42416e1a-5465-4651-8da7-ae045ab6cb79</t>
+  </si>
+  <si>
+    <t>Samrat Das</t>
+  </si>
+  <si>
+    <t>samratd9098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ddafb6a3-c79c-4979-893b-710d9e32f959</t>
+  </si>
+  <si>
+    <t>Chayan Mandal</t>
+  </si>
+  <si>
+    <t>mandalchayan11@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c26d385-4d0d-4cdd-a0ba-ffd4eb5fb819</t>
+  </si>
+  <si>
+    <t>Soumya Kishor Ghosh</t>
+  </si>
+  <si>
+    <t>skishorg20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b9d82761-66e6-4129-bd5a-7b57985f8e6b</t>
+  </si>
+  <si>
+    <t>Jatoth Geetha</t>
+  </si>
+  <si>
+    <t>geethajatoth3446@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d1bcd768-88ab-4703-ad2d-08dfcea1029e</t>
+  </si>
+  <si>
+    <t>ROHIT DAS</t>
+  </si>
+  <si>
+    <t>rohitdascse@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffd2c13d-5159-49fa-aead-417efce4b3d9</t>
+  </si>
+  <si>
+    <t>Raunak Sarkar</t>
+  </si>
+  <si>
+    <t>atinction@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/74761fc6-2cfd-4022-a0e9-bb691e840293</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Anant Krishna Tiwari</t>
+  </si>
+  <si>
+    <t>oddelectronspecies@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6042c965-44f7-44e5-8bc5-0e9eb5fff1e5</t>
+  </si>
+  <si>
+    <t>Aritra Pal</t>
+  </si>
+  <si>
+    <t>aritrapal17178@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f8df950-896a-46fa-ad1a-d2944f9ba83b</t>
+  </si>
+  <si>
+    <t>Mozammil Iqubal</t>
+  </si>
+  <si>
+    <t>csmozammil@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/42c44b3d-d5c0-408c-90a3-0e382f337694</t>
+  </si>
+  <si>
+    <t>SHYAM KUMAR SONI</t>
+  </si>
+  <si>
+    <t>shyamkumarsoni8942@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/06ef289d-0492-4d89-9234-8bd8dded2a0f</t>
+  </si>
+  <si>
+    <t>ANUSHKA KAR</t>
+  </si>
+  <si>
+    <t>anushkakv20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/62e5e896-acd1-4733-9c6e-fdf4947eb2c1</t>
+  </si>
+  <si>
+    <t>Koushik Ghosh</t>
+  </si>
+  <si>
+    <t>gkoushik904@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e4b383b4-9d3e-4207-afa0-cb73114cf676</t>
+  </si>
+  <si>
+    <t>Sayan Bhattacharjee</t>
+  </si>
+  <si>
+    <t>slgsayan46@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c8a1a0f0-6ec0-4ca1-8a9e-cf8164f53516</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ayush shaw</t>
+  </si>
+  <si>
+    <t>ayushshawm@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1c9a75de-518b-4185-9718-530091a22da9</t>
+  </si>
+  <si>
+    <t>Niladri Singha</t>
+  </si>
+  <si>
+    <t>singhaniladri2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cdf8936b-2d83-47bd-8bff-2d4f75ef7c13</t>
+  </si>
+  <si>
+    <t>Bidisha Garai</t>
+  </si>
+  <si>
+    <t>bidisha496@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4307cd00-300d-4efc-8770-e0871fccdcd2</t>
+  </si>
+  <si>
+    <t>Mrigaj Shaw</t>
+  </si>
+  <si>
+    <t>2024csb041.mrigaj@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cb7819a0-52f5-4f96-bd8f-083f9a29314a</t>
+  </si>
+  <si>
+    <t>Pritam Roy</t>
+  </si>
+  <si>
+    <t>2024mnb012.pritam@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/94db0ed2-4b20-4704-b58e-c582dfbf5c8f</t>
+  </si>
+  <si>
+    <t>Swastika Kar</t>
+  </si>
+  <si>
+    <t>2022csb083.swastika@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/70bf476f-5fec-41ef-815f-458c27acfd38</t>
+  </si>
+  <si>
+    <t>Soham Manna</t>
+  </si>
+  <si>
+    <t>soham.manna275@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4171a39-ba48-415d-b21e-3007947beadb</t>
+  </si>
+  <si>
+    <t>Gaurvi Dohare</t>
+  </si>
+  <si>
+    <t>doharegaurvi2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a073b57c-88d3-4699-8f85-7c6266f84ee0</t>
+  </si>
+  <si>
+    <t>Mohit Yadav</t>
+  </si>
+  <si>
+    <t>superkeys915@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e2f5d9e0-9f33-4c6f-9aa2-0b749fb2851d</t>
+  </si>
+  <si>
+    <t>Aditi Vyas</t>
+  </si>
+  <si>
+    <t>aditivyas1802@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/69db531d-cb58-4691-aaeb-be07296fba4b</t>
+  </si>
+  <si>
+    <t>Shantanu Kaushik</t>
+  </si>
+  <si>
+    <t>shantanukaushik042@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eab5cedd-c333-48f5-afb5-96b50394f11d</t>
+  </si>
+  <si>
+    <t>Pratik raj</t>
+  </si>
+  <si>
+    <t>pratik16iiest@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2292bdd6-57dc-4574-aeb7-3a38357be068</t>
+  </si>
+  <si>
+    <t>Mohammad Zaid</t>
+  </si>
+  <si>
+    <t>zaid.cde@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3eaee966-bd1c-4d42-84c7-e9c2f1dae398</t>
+  </si>
+  <si>
+    <t>Debasmita Pal</t>
+  </si>
+  <si>
+    <t>2024csb008.debasmita@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cb639e20-c151-4fe2-953c-80b1313351c5</t>
+  </si>
+  <si>
+    <t>Al Faiz Ali</t>
+  </si>
+  <si>
+    <t>alfaiz.gcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48806be7-2a50-425b-80a0-b5f28ced7e85</t>
+  </si>
+  <si>
+    <t>Namrta Singh Patel</t>
+  </si>
+  <si>
+    <t>2023CEB129.namrta@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/87db1631-537a-436c-a8bb-69e1a05e8d62</t>
+  </si>
+  <si>
+    <t>Ahmad Raza Beg</t>
+  </si>
+  <si>
+    <t>2024eeb013.ahmad@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d147b7b1-f127-4b5c-a086-b434fab4d708</t>
+  </si>
+  <si>
+    <t>Arnab bera</t>
+  </si>
+  <si>
+    <t>arnofficial24@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82e5a839-7213-42e5-8aea-eb0db1463cc2</t>
+  </si>
+  <si>
+    <t>Felix minz</t>
+  </si>
+  <si>
+    <t>felixminz12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/abb23cd9-8b1f-423c-8716-275ca2407004</t>
+  </si>
+  <si>
+    <t>Tarun Bhaskaranand Sagar</t>
+  </si>
+  <si>
+    <t>letscode.coder@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0252151f-99cd-4d43-a348-a2129d8813d8</t>
+  </si>
+  <si>
+    <t>Swastika Ghosh</t>
+  </si>
+  <si>
+    <t>swastikapalashipara@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a64120-eaee-4e68-b11c-a508432cf653</t>
+  </si>
+  <si>
+    <t>Ranit Sarkar</t>
+  </si>
+  <si>
+    <t>ranitsarkar35@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/704f6ff8-94ce-451b-81ef-b0f44e88f7fb</t>
+  </si>
+  <si>
+    <t>SOUMYADEEP PAUL</t>
+  </si>
+  <si>
+    <t>soumyadeeppaul1200@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45384cf2-5ef3-4b79-8cf3-f1f6ff69c959</t>
+  </si>
+  <si>
+    <t>Anupam Singh</t>
+  </si>
+  <si>
+    <t>2024eeb084.anupam@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b4bf18d5-9022-4200-a7ea-a9b257794c6e</t>
+  </si>
+  <si>
+    <t>Debapriya Dey</t>
+  </si>
+  <si>
+    <t>2024etb039.debapriya@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a96082c1-fccf-4152-8cf5-c26a22f29353</t>
+  </si>
+  <si>
+    <t>Arkesh Baidya</t>
+  </si>
+  <si>
+    <t>2024itb003.arkesh@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a10d53cc-455b-4358-b6f6-0673238ba51b</t>
+  </si>
+  <si>
+    <t>Pankaj Swami</t>
+  </si>
+  <si>
+    <t>2024meb068.pankaj@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12b36ff0-48ac-4718-b150-17ecbd1cfb6e</t>
+  </si>
+  <si>
     <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
   </si>
   <si>
-    <t>Akash Shaw</t>
-  </si>
-  <si>
-    <t>iamakashtechie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/730776de-a9ef-4a82-8bff-204f441fb44d</t>
-  </si>
-  <si>
-    <t>Aaratrika Sarkar</t>
-  </si>
-  <si>
-    <t>deyawhatsapp@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34aabe6a-b515-4915-b808-1ce55df27a3f</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mohammad Arafat Hussain</t>
-  </si>
-  <si>
-    <t>arafatjams2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/71386a30-9974-490d-a673-270653ad2098</t>
-  </si>
-  <si>
-    <t>Ahana Ganguly</t>
-  </si>
-  <si>
-    <t>2023etb012.ahana@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0c481726-4f2d-4014-9e37-084bdf13d473</t>
-  </si>
-  <si>
-    <t>Sumit Kumar</t>
-  </si>
-  <si>
-    <t>sumitkr.iiests@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fdfffd7f-77cf-4046-bb3a-cc12b781508d</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sarthak Singh</t>
-  </si>
-  <si>
-    <t>its23.sar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6084e0f7-aab4-4ae1-9e1b-99c62d593947</t>
-  </si>
-  <si>
-    <t>Shailesh Kumar</t>
-  </si>
-  <si>
-    <t>2023meb030.shailesh@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d82b1d8-c1a4-42a4-803d-2e3e4c62e5f0</t>
-  </si>
-  <si>
-    <t>Sudipta Dhar</t>
-  </si>
-  <si>
-    <t>sudiptodhar30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12627f23-75c7-4ac9-84a2-13fb86e486b5</t>
-  </si>
-  <si>
-    <t>Harsh Prasad</t>
-  </si>
-  <si>
-    <t>hp.prasadharsh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/72aff046-786d-43ce-aa84-5559b0cad480</t>
-  </si>
-  <si>
-    <t>iamakashtechie.genai2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ba2fa9f4-be0c-4a14-88fd-a85f8dd1bde0</t>
-  </si>
-  <si>
-    <t>Wadadare Piyush Rajendra</t>
-  </si>
-  <si>
-    <t>wadadarepiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d7f5622a-1532-416a-952f-2132ce32cc3a</t>
-  </si>
-  <si>
-    <t>shaileshkumarj2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/538e38d4-73c2-4cd0-9710-dfd783386748</t>
-  </si>
-  <si>
-    <t>Harsh Kumar Sah</t>
-  </si>
-  <si>
-    <t>sahharsh787@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4815e3c5-5cb8-499d-92be-455f448252a3</t>
-  </si>
-  <si>
-    <t>sarthak23062003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/df60ec1d-69de-427f-82d5-651ae75322b5</t>
-  </si>
-  <si>
-    <t>Ankit Kumar</t>
-  </si>
-  <si>
-    <t>anki95kr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5bef10aa-518b-48d2-b506-e02d1b520d12</t>
-  </si>
-  <si>
-    <t>Divyansh Srivastav</t>
-  </si>
-  <si>
-    <t>srivastavmohit9876@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/84bba77a-b11b-4fe5-b56e-8f7c60f5be7f</t>
-  </si>
-  <si>
-    <t>Ankit kumar</t>
-  </si>
-  <si>
-    <t>ankitmishra0917@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7cbdc2e4-060a-4114-bdd6-33cae60f2ed7</t>
-  </si>
-  <si>
-    <t>Ayush Dutta</t>
-  </si>
-  <si>
-    <t>ayushiiestsgdsc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b8a5831f-ffbe-42d4-aaaa-b1ada5b20261</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mehul Mehta</t>
-  </si>
-  <si>
-    <t>mehulmehta17113346@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f3a03eea-56c9-4c79-8bdd-235bf7845f2c</t>
-  </si>
-  <si>
-    <t>Yasharth Shukla</t>
-  </si>
-  <si>
-    <t>yasharthshukla01@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ed886629-dd50-40ee-bb40-b6c1f65e55ca</t>
-  </si>
-  <si>
-    <t>Devojeet Vyapari</t>
-  </si>
-  <si>
-    <t>2024meb069.devojeet@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b91d8349-cc06-4d77-b972-d7b65a64fb9c</t>
-  </si>
-  <si>
-    <t>Ashika Shaw</t>
-  </si>
-  <si>
-    <t>ashikashaw1505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/37489f87-bf04-4275-822d-8e9d717f77f8</t>
-  </si>
-  <si>
-    <t>Rupak Jana</t>
-  </si>
-  <si>
-    <t>studyrupakh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6f115d34-bccc-4e6a-9e2e-8f52bad7f4c9</t>
-  </si>
-  <si>
-    <t>Arham Owais</t>
-  </si>
-  <si>
-    <t>arham2004.owais@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/40f80402-d840-464d-b082-f821c841c2ae</t>
-  </si>
-  <si>
-    <t>SANTOSH</t>
-  </si>
-  <si>
-    <t>santosh.csb084.mail@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c3569fd0-b38c-433a-ae29-ee2a0b7a155d</t>
-  </si>
-  <si>
-    <t>Vipin Kumar Chaudhary</t>
-  </si>
-  <si>
-    <t>vipinjietb070@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6bef4b12-e47b-444f-8d07-6b6156220332</t>
-  </si>
-  <si>
-    <t>Tapash Jaiswal</t>
-  </si>
-  <si>
-    <t>2023csb046.tapash@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a1fae5ef-1abe-4cc2-bd0e-08b58b4bd757</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Soureen karmakar</t>
-  </si>
-  <si>
-    <t>2023itb075.soureen@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6ec301b6-6525-4b13-9129-767e3e3a5a13</t>
-  </si>
-  <si>
-    <t>Ankur Mukherjee</t>
-  </si>
-  <si>
-    <t>mukherjeeankur0073@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6de2f67f-45c2-4f89-9230-ac8a4e3ae631</t>
-  </si>
-  <si>
-    <t>Vaibhav Singh</t>
-  </si>
-  <si>
-    <t>vaibhavdmcsingh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e7594041-90e9-41fc-9e18-a874c20a39fe</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Subhoshri Pal</t>
-  </si>
-  <si>
-    <t>cordeliaherondale720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c4075567-e71b-4582-a195-a3f01034b09d</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tejas Pawar</t>
-  </si>
-  <si>
-    <t>tejaspawar62689@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56b0a492-2b0f-49c7-ab41-35f1e47f7fdd</t>
-  </si>
-  <si>
-    <t>Abhinn Prakash Yadav</t>
-  </si>
-  <si>
-    <t>abhinnprakashyadav@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cea61356-74ac-4e83-9ea5-43347b36b11b</t>
-  </si>
-  <si>
-    <t>Abhideep Choubey</t>
-  </si>
-  <si>
-    <t>cutehandsomechokhra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9fcf70a6-3f49-4f6c-9e96-bb06fc5f0b40</t>
-  </si>
-  <si>
-    <t>Chaitanya Gupta</t>
-  </si>
-  <si>
-    <t>manishagupta270678@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f09d7a5-a57e-4457-8320-34b3ff010a29</t>
-  </si>
-  <si>
-    <t>Rohit Hansda</t>
-  </si>
-  <si>
-    <t>codersevix@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/84076072-65ba-4807-9c3e-db805a9161bb</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sayan Roy</t>
-  </si>
-  <si>
-    <t>sayanroy7987@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7f7a1e60-e060-4abf-b410-967feb69f707?locale=tr</t>
-  </si>
-  <si>
-    <t>Shivam Kumar</t>
-  </si>
-  <si>
-    <t>2024ceb003.shivam@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/05b4a896-90e4-4f19-b774-8c2e382252b7</t>
-  </si>
-  <si>
-    <t>Shalu Kumari</t>
-  </si>
-  <si>
-    <t>shalukumari93129@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5273167f-46fc-4763-88d5-708739b375ac</t>
-  </si>
-  <si>
-    <t>Anshita</t>
-  </si>
-  <si>
-    <t>mishraanshita990@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6386c175-2bae-4232-b2e7-590c5554daeb</t>
-  </si>
-  <si>
-    <t>Tejash Kapoor</t>
-  </si>
-  <si>
-    <t>kapoortejash7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/42a3f618-b316-42de-b857-dd1e080c9323</t>
-  </si>
-  <si>
-    <t>Pritam Mondal</t>
-  </si>
-  <si>
-    <t>2022itb066.pritam@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a5316abd-6d6e-49f4-9b2c-22afb7ab7aaa</t>
-  </si>
-  <si>
-    <t>GAURAV KUMAR</t>
-  </si>
-  <si>
-    <t>grvboost@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b85ef202-b1d9-4aa7-9608-f82e106a45c4</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ayush Kumar</t>
-  </si>
-  <si>
-    <t>ayushkumar.iiests@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c060500c-cdba-4d63-8a84-e0fa4eca989f</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jayant Balkrishna Dhakate</t>
-  </si>
-  <si>
-    <t>2023amb034.jayant@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e7d5536-27a1-465a-8c73-5cd92cd9338a</t>
-  </si>
-  <si>
-    <t>Yash Avinash Mahajan</t>
-  </si>
-  <si>
-    <t>pheonixnightshade521@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e23b24fc-0c2c-4ee1-963b-111b227815fc</t>
-  </si>
-  <si>
-    <t>Ananta</t>
-  </si>
-  <si>
-    <t>anantapandey0411@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f799a4a4-d4d7-4126-adb5-01f3db65d2ec</t>
-  </si>
-  <si>
-    <t>Sagnik Jana</t>
-  </si>
-  <si>
-    <t>janasagnik66@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17f9da92-f7d7-49e8-b5d8-861fa5fc15b3</t>
-  </si>
-  <si>
-    <t>Swarnima Kumari</t>
-  </si>
-  <si>
-    <t>professionalworkmanage321@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e79bf61-0986-4397-98d3-266da50764f3</t>
-  </si>
-  <si>
-    <t>Manik</t>
-  </si>
-  <si>
-    <t>sheoranmanik@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3813f01e-219b-4902-8884-3558dedcd697</t>
-  </si>
-  <si>
-    <t>Goutam Samanta</t>
-  </si>
-  <si>
-    <t>nemaisamanta30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/371027ef-0b0c-43c7-9cba-064f5d0aa32f</t>
-  </si>
-  <si>
-    <t>Abhirup Saha</t>
-  </si>
-  <si>
-    <t>abhi06622@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2f6f0a8-4eba-45ac-baa4-6dfcadc60ac6</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Uttam Mahata</t>
-  </si>
-  <si>
-    <t>mahatauttam2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9b49d841-1db9-4d55-988f-fdf6bdd6a557</t>
-  </si>
-  <si>
-    <t>Ramkrishna kumar</t>
-  </si>
-  <si>
-    <t>kramkrishna121@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/aa090534-9cba-42e5-abe1-edffb1fa81bf</t>
-  </si>
-  <si>
-    <t>Diya Ghosh</t>
-  </si>
-  <si>
-    <t>diya1692005ne@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/26bf1c95-c66e-4a83-bcea-dd684c86fac1</t>
-  </si>
-  <si>
-    <t>Mansi Mehra</t>
-  </si>
-  <si>
-    <t>mansi2004mehra18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c5166d9d-a202-4f09-84c4-1238317c310b</t>
-  </si>
-  <si>
-    <t>Sumana Dangar</t>
-  </si>
-  <si>
-    <t>dangarsumana05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2f66d76c-3462-46d5-9631-57511e814dfa</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ayush Ranjan</t>
-  </si>
-  <si>
-    <t>2023itb105.ayush@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fe317b04-31d5-4852-aa60-915a52a519a0</t>
-  </si>
-  <si>
-    <t>Amit Kiran Das</t>
-  </si>
-  <si>
-    <t>dasamitkiran10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1e069491-765c-4200-b7c9-68d1d2753639</t>
-  </si>
-  <si>
-    <t>Harsh Raj Gupta</t>
-  </si>
-  <si>
-    <t>hrg.genai@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e9106dfb-be62-40b4-b8ba-c467559373ac</t>
-  </si>
-  <si>
-    <t>harshh.raj.gupta@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d04c2db-ae44-4ab0-a357-102c96009fa4</t>
-  </si>
-  <si>
-    <t>Abhradeep Kayal</t>
-  </si>
-  <si>
-    <t>kayal.abhradeep04@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/aee7f200-c62b-4b79-82e9-57f66a75ba2d</t>
-  </si>
-  <si>
-    <t>Aditya Shaw</t>
-  </si>
-  <si>
-    <t>adityawcode@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c4e8b98b-826e-495a-a234-3ce32f33c997</t>
-  </si>
-  <si>
-    <t>Subhrajyoti Sarkar</t>
-  </si>
-  <si>
-    <t>subhrajyotisarkar507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0d744899-d2db-419e-8e30-f34dae91f218</t>
-  </si>
-  <si>
-    <t>Pritam Paul</t>
-  </si>
-  <si>
-    <t>pritamcloudoct24@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ec99f0b-6fa7-44ba-bacb-cd8a2c321e9b</t>
-  </si>
-  <si>
-    <t>Abhishek kumar</t>
-  </si>
-  <si>
-    <t>abhishek21021042@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8f7dffe3-70c4-4545-af02-ac2d6f3c2b92</t>
-  </si>
-  <si>
-    <t>Anish Kumar</t>
-  </si>
-  <si>
-    <t>anishku6181@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/997b9729-c6e8-4b3f-ac85-a633beece8c0</t>
-  </si>
-  <si>
-    <t>Tirtha Halder</t>
-  </si>
-  <si>
-    <t>tirthagenai24@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/42416e1a-5465-4651-8da7-ae045ab6cb79</t>
-  </si>
-  <si>
-    <t>Samrat Das</t>
-  </si>
-  <si>
-    <t>samratd9098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ddafb6a3-c79c-4979-893b-710d9e32f959</t>
-  </si>
-  <si>
-    <t>Chayan Mandal</t>
-  </si>
-  <si>
-    <t>mandalchayan11@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c26d385-4d0d-4cdd-a0ba-ffd4eb5fb819</t>
-  </si>
-  <si>
-    <t>Soumya Kishor Ghosh</t>
-  </si>
-  <si>
-    <t>skishorg20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b9d82761-66e6-4129-bd5a-7b57985f8e6b</t>
-  </si>
-  <si>
-    <t>Jatoth Geetha</t>
-  </si>
-  <si>
-    <t>geethajatoth3446@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d1bcd768-88ab-4703-ad2d-08dfcea1029e</t>
-  </si>
-  <si>
-    <t>ROHIT DAS</t>
-  </si>
-  <si>
-    <t>rohitdascse@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffd2c13d-5159-49fa-aead-417efce4b3d9</t>
-  </si>
-  <si>
-    <t>Raunak Sarkar</t>
-  </si>
-  <si>
-    <t>atinction@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/74761fc6-2cfd-4022-a0e9-bb691e840293</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Anant Krishna Tiwari</t>
-  </si>
-  <si>
-    <t>oddelectronspecies@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6042c965-44f7-44e5-8bc5-0e9eb5fff1e5</t>
-  </si>
-  <si>
-    <t>Aritra Pal</t>
-  </si>
-  <si>
-    <t>aritrapal17178@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f8df950-896a-46fa-ad1a-d2944f9ba83b</t>
-  </si>
-  <si>
-    <t>Mozammil Iqubal</t>
-  </si>
-  <si>
-    <t>csmozammil@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/42c44b3d-d5c0-408c-90a3-0e382f337694</t>
-  </si>
-  <si>
-    <t>SHYAM KUMAR SONI</t>
-  </si>
-  <si>
-    <t>shyamkumarsoni8942@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/06ef289d-0492-4d89-9234-8bd8dded2a0f</t>
-  </si>
-  <si>
-    <t>ANUSHKA KAR</t>
-  </si>
-  <si>
-    <t>anushkakv20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/62e5e896-acd1-4733-9c6e-fdf4947eb2c1</t>
-  </si>
-  <si>
-    <t>Koushik Ghosh</t>
-  </si>
-  <si>
-    <t>gkoushik904@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e4b383b4-9d3e-4207-afa0-cb73114cf676</t>
-  </si>
-  <si>
-    <t>Sayan Bhattacharjee</t>
-  </si>
-  <si>
-    <t>slgsayan46@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c8a1a0f0-6ec0-4ca1-8a9e-cf8164f53516</t>
-  </si>
-  <si>
-    <t>Ayush shaw</t>
-  </si>
-  <si>
-    <t>ayushshawm@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1c9a75de-518b-4185-9718-530091a22da9</t>
-  </si>
-  <si>
-    <t>Niladri Singha</t>
-  </si>
-  <si>
-    <t>singhaniladri2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cdf8936b-2d83-47bd-8bff-2d4f75ef7c13</t>
-  </si>
-  <si>
-    <t>Bidisha Garai</t>
-  </si>
-  <si>
-    <t>bidisha496@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4307cd00-300d-4efc-8770-e0871fccdcd2</t>
-  </si>
-  <si>
-    <t>Mrigaj Shaw</t>
-  </si>
-  <si>
-    <t>2024csb041.mrigaj@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cb7819a0-52f5-4f96-bd8f-083f9a29314a</t>
-  </si>
-  <si>
-    <t>Pritam Roy</t>
-  </si>
-  <si>
-    <t>2024mnb012.pritam@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/94db0ed2-4b20-4704-b58e-c582dfbf5c8f</t>
-  </si>
-  <si>
-    <t>Swastika Kar</t>
-  </si>
-  <si>
-    <t>2022csb083.swastika@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/70bf476f-5fec-41ef-815f-458c27acfd38</t>
-  </si>
-  <si>
-    <t>Soham Manna</t>
-  </si>
-  <si>
-    <t>soham.manna275@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4171a39-ba48-415d-b21e-3007947beadb</t>
-  </si>
-  <si>
-    <t>Gaurvi Dohare</t>
-  </si>
-  <si>
-    <t>doharegaurvi2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a073b57c-88d3-4699-8f85-7c6266f84ee0</t>
-  </si>
-  <si>
-    <t>Mohit Yadav</t>
-  </si>
-  <si>
-    <t>superkeys915@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e2f5d9e0-9f33-4c6f-9aa2-0b749fb2851d</t>
-  </si>
-  <si>
-    <t>Aditi Vyas</t>
-  </si>
-  <si>
-    <t>aditivyas1802@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/69db531d-cb58-4691-aaeb-be07296fba4b</t>
-  </si>
-  <si>
-    <t>Shantanu Kaushik</t>
-  </si>
-  <si>
-    <t>shantanukaushik042@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eab5cedd-c333-48f5-afb5-96b50394f11d</t>
-  </si>
-  <si>
-    <t>Pratik raj</t>
-  </si>
-  <si>
-    <t>pratik16iiest@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2292bdd6-57dc-4574-aeb7-3a38357be068</t>
-  </si>
-  <si>
-    <t>Mohammad Zaid</t>
-  </si>
-  <si>
-    <t>zaid.cde@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3eaee966-bd1c-4d42-84c7-e9c2f1dae398</t>
-  </si>
-  <si>
-    <t>Debasmita Pal</t>
-  </si>
-  <si>
-    <t>2024csb008.debasmita@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cb639e20-c151-4fe2-953c-80b1313351c5</t>
-  </si>
-  <si>
-    <t>Al Faiz Ali</t>
-  </si>
-  <si>
-    <t>alfaiz.gcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48806be7-2a50-425b-80a0-b5f28ced7e85</t>
-  </si>
-  <si>
-    <t>Namrta Singh Patel</t>
-  </si>
-  <si>
-    <t>2023CEB129.namrta@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/87db1631-537a-436c-a8bb-69e1a05e8d62</t>
-  </si>
-  <si>
-    <t>Ahmad Raza Beg</t>
-  </si>
-  <si>
-    <t>2024eeb013.ahmad@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d147b7b1-f127-4b5c-a086-b434fab4d708</t>
-  </si>
-  <si>
-    <t>Arnab bera</t>
-  </si>
-  <si>
-    <t>arnofficial24@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82e5a839-7213-42e5-8aea-eb0db1463cc2</t>
-  </si>
-  <si>
-    <t>Felix minz</t>
-  </si>
-  <si>
-    <t>felixminz12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/abb23cd9-8b1f-423c-8716-275ca2407004</t>
-  </si>
-  <si>
-    <t>Tarun Bhaskaranand Sagar</t>
-  </si>
-  <si>
-    <t>letscode.coder@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0252151f-99cd-4d43-a348-a2129d8813d8</t>
-  </si>
-  <si>
-    <t>Swastika Ghosh</t>
-  </si>
-  <si>
-    <t>swastikapalashipara@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a64120-eaee-4e68-b11c-a508432cf653</t>
-  </si>
-  <si>
-    <t>Ranit Sarkar</t>
-  </si>
-  <si>
-    <t>ranitsarkar35@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/704f6ff8-94ce-451b-81ef-b0f44e88f7fb</t>
-  </si>
-  <si>
-    <t>SOUMYADEEP PAUL</t>
-  </si>
-  <si>
-    <t>soumyadeeppaul1200@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45384cf2-5ef3-4b79-8cf3-f1f6ff69c959</t>
-  </si>
-  <si>
-    <t>Anupam Singh</t>
-  </si>
-  <si>
-    <t>2024eeb084.anupam@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b4bf18d5-9022-4200-a7ea-a9b257794c6e</t>
-  </si>
-  <si>
-    <t>Debapriya Dey</t>
-  </si>
-  <si>
-    <t>2024etb039.debapriya@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a96082c1-fccf-4152-8cf5-c26a22f29353</t>
-  </si>
-  <si>
-    <t>Arkesh Baidya</t>
-  </si>
-  <si>
-    <t>2024itb003.arkesh@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a10d53cc-455b-4358-b6f6-0673238ba51b</t>
-  </si>
-  <si>
-    <t>Pankaj Swami</t>
-  </si>
-  <si>
-    <t>2024meb068.pankaj@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12b36ff0-48ac-4718-b150-17ecbd1cfb6e</t>
-  </si>
-  <si>
     <t>Arghadip Som</t>
   </si>
   <si>
@@ -1345,6 +1351,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4f19249e-6118-40fb-b23d-9b16f4209b8a</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
     <t>Mridul Goyal</t>
   </si>
   <si>
@@ -1441,13 +1450,16 @@
     <t>https://www.cloudskillsboost.google/public_profiles/ef2329d4-0d26-49f5-b3c6-301f7f0b86be</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
     <t>a.kumarishalu113@gmail.com</t>
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/7bcc7efb-3170-4f57-8789-4c0441853705</t>
   </si>
   <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
   </si>
   <si>
     <t>Liya Mufizraza Shabbir</t>
@@ -1618,7 +1630,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4e3aee7e-2dbb-4dc1-8349-96b05b163f0a</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
   </si>
   <si>
     <t>Suchana Hazra</t>
@@ -2536,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930C3586-2F27-47D2-844D-A22EFDACAEBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DD5478-C5C7-41EA-872D-A5BFF1414EF5}">
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2988,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>62</v>
@@ -3049,7 +3061,10 @@
         <v>69</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -3124,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>79</v>
@@ -3208,7 +3223,10 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3216,13 +3234,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -3234,7 +3252,10 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>93</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3248,10 +3269,10 @@
         <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -3263,10 +3284,10 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -3277,13 +3298,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -3306,10 +3327,10 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3329,13 +3350,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -3358,10 +3379,10 @@
         <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -3384,13 +3405,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -3410,13 +3431,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -3436,13 +3457,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -3462,13 +3483,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -3477,13 +3498,13 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3494,13 +3515,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -3520,13 +3541,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -3538,7 +3559,10 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>62</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3546,13 +3570,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
@@ -3572,13 +3596,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -3598,13 +3622,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -3624,13 +3648,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -3650,13 +3674,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3676,13 +3700,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3702,13 +3726,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3717,13 +3741,13 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3734,13 +3758,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -3763,13 +3787,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3784,18 +3808,21 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -3804,13 +3831,13 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3821,13 +3848,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3842,7 +3869,7 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3978,7 +4005,7 @@
         <v>15</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H53" t="s">
         <v>174</v>
@@ -4085,10 +4112,16 @@
         <v>15</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>69</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -4166,13 +4199,16 @@
         <v>15</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="s">
         <v>196</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -4195,13 +4231,16 @@
         <v>15</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H61" t="s">
         <v>200</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -4244,13 +4283,16 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>62</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4357,10 +4399,10 @@
         <v>15</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4415,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4423,13 +4465,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" t="s">
         <v>226</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>227</v>
-      </c>
-      <c r="C70" t="s">
-        <v>228</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -4449,13 +4491,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s">
         <v>229</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>230</v>
-      </c>
-      <c r="C71" t="s">
-        <v>231</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -4475,13 +4517,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
         <v>232</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>233</v>
-      </c>
-      <c r="C72" t="s">
-        <v>234</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -4501,13 +4543,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
         <v>235</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>236</v>
-      </c>
-      <c r="C73" t="s">
-        <v>237</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -4527,14 +4569,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" t="s">
         <v>238</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="C74" t="s">
-        <v>240</v>
-      </c>
       <c r="D74" t="s">
         <v>13</v>
       </c>
@@ -4542,13 +4584,13 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -4559,25 +4601,28 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s">
         <v>242</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
         <v>243</v>
-      </c>
-      <c r="C75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4585,13 +4630,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" t="s">
         <v>245</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>246</v>
-      </c>
-      <c r="C76" t="s">
-        <v>247</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4614,13 +4659,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" t="s">
         <v>248</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>249</v>
-      </c>
-      <c r="C77" t="s">
-        <v>250</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -4640,13 +4685,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" t="s">
         <v>251</v>
-      </c>
-      <c r="C78" t="s">
-        <v>252</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -4666,14 +4711,14 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" t="s">
         <v>253</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>254</v>
       </c>
-      <c r="C79" t="s">
-        <v>255</v>
-      </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
@@ -4684,7 +4729,10 @@
         <v>15</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>89</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4692,14 +4740,14 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" t="s">
         <v>256</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>257</v>
       </c>
-      <c r="C80" t="s">
-        <v>258</v>
-      </c>
       <c r="D80" t="s">
         <v>13</v>
       </c>
@@ -4710,7 +4758,10 @@
         <v>15</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H80" t="s">
+        <v>96</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4718,14 +4769,14 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" t="s">
         <v>259</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>260</v>
       </c>
-      <c r="C81" t="s">
-        <v>261</v>
-      </c>
       <c r="D81" t="s">
         <v>13</v>
       </c>
@@ -4736,7 +4787,10 @@
         <v>15</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>69</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4744,25 +4798,28 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" t="s">
         <v>262</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>263</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
         <v>264</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -5005,7 +5062,7 @@
         <v>15</v>
       </c>
       <c r="G91">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
         <v>292</v>
@@ -5063,10 +5120,16 @@
         <v>15</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>69</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
@@ -5141,7 +5204,10 @@
         <v>15</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>69</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -5196,10 +5262,10 @@
         <v>15</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -5210,13 +5276,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C99" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -5236,13 +5302,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5262,13 +5328,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -5288,13 +5354,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B102" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C102" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5314,13 +5380,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C103" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5340,13 +5406,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B104" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C104" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -5366,13 +5432,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -5392,25 +5458,28 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B106" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
         <v>15</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>69</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5418,13 +5487,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -5444,13 +5513,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B108" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C108" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5470,13 +5539,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B109" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C109" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5496,13 +5565,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C110" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5522,13 +5591,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B111" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C111" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5548,13 +5617,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C112" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -5574,13 +5643,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B113" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C113" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -5600,13 +5669,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B114" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C114" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -5629,13 +5698,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C115" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -5655,13 +5724,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B116" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C116" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -5681,13 +5750,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C117" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -5707,13 +5776,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B118" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C118" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -5733,13 +5802,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B119" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C119" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -5759,13 +5828,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C120" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -5785,13 +5854,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B121" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C121" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -5811,13 +5880,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B122" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C122" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -5837,13 +5906,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B123" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C123" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -5863,13 +5932,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B124" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -5889,13 +5958,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B125" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C125" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -5907,21 +5976,27 @@
         <v>15</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>396</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -5947,13 +6022,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B127" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C127" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -5973,13 +6048,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C128" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -6002,13 +6077,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B129" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C129" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6031,13 +6106,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B130" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C130" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -6049,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -6063,13 +6138,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B131" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C131" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -6089,13 +6164,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B132" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C132" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -6115,13 +6190,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B133" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C133" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D133" t="s">
         <v>34</v>
@@ -6141,13 +6216,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B134" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C134" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -6159,7 +6234,10 @@
         <v>15</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>89</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -6170,13 +6248,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B135" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -6196,13 +6274,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B136" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C136" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D136" t="s">
         <v>34</v>
@@ -6222,13 +6300,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B137" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C137" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -6248,13 +6326,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C138" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -6274,13 +6352,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B139" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C139" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -6300,13 +6378,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B140" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -6332,10 +6410,10 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C141" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
@@ -6347,21 +6425,27 @@
         <v>15</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H141" t="s">
+        <v>443</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B142" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C142" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -6381,13 +6465,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B143" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C143" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
@@ -6407,13 +6491,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B144" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C144" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
@@ -6433,13 +6517,13 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B145" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C145" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
@@ -6451,21 +6535,27 @@
         <v>15</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>69</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B146" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C146" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
@@ -6485,13 +6575,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B147" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C147" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
@@ -6511,13 +6601,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B148" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C148" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
@@ -6537,13 +6627,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B149" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C149" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
@@ -6563,13 +6653,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B150" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C150" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
@@ -6589,13 +6679,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B151" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C151" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
@@ -6610,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6618,13 +6708,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B152" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C152" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D152" t="s">
         <v>13</v>
@@ -6636,10 +6726,10 @@
         <v>15</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H152" t="s">
-        <v>62</v>
+        <v>476</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -6653,10 +6743,10 @@
         <v>181</v>
       </c>
       <c r="B153" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C153" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D153" t="s">
         <v>13</v>
@@ -6668,10 +6758,10 @@
         <v>15</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -6682,13 +6772,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B154" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C154" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D154" t="s">
         <v>13</v>
@@ -6711,13 +6801,13 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B155" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C155" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -6740,10 +6830,10 @@
         <v>265</v>
       </c>
       <c r="B156" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C156" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D156" t="s">
         <v>34</v>
@@ -6763,13 +6853,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B157" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C157" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
@@ -6792,13 +6882,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B158" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C158" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D158" t="s">
         <v>13</v>
@@ -6818,13 +6908,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B159" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C159" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D159" t="s">
         <v>34</v>
@@ -6844,13 +6934,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B160" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C160" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -6862,7 +6952,10 @@
         <v>15</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H160" t="s">
+        <v>396</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6873,13 +6966,13 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B161" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C161" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D161" t="s">
         <v>13</v>
@@ -6899,13 +6992,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B162" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C162" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -6925,13 +7018,13 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B163" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C163" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D163" t="s">
         <v>13</v>
@@ -6951,13 +7044,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B164" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C164" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D164" t="s">
         <v>13</v>
@@ -6977,13 +7070,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B165" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C165" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D165" t="s">
         <v>13</v>
@@ -7003,13 +7096,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B166" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C166" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D166" t="s">
         <v>13</v>
@@ -7029,13 +7122,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B167" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C167" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D167" t="s">
         <v>13</v>
@@ -7055,13 +7148,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B168" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C168" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D168" t="s">
         <v>13</v>
@@ -7081,13 +7174,13 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B169" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C169" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
@@ -7107,13 +7200,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B170" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C170" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
@@ -7133,13 +7226,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B171" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C171" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D171" t="s">
         <v>13</v>
@@ -7159,13 +7252,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B172" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C172" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D172" t="s">
         <v>13</v>
@@ -7185,13 +7278,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B173" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C173" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D173" t="s">
         <v>13</v>
@@ -7203,10 +7296,10 @@
         <v>15</v>
       </c>
       <c r="G173">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -7217,19 +7310,19 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B174" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C174" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F174" t="s">
         <v>15</v>
@@ -7243,13 +7336,13 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B175" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C175" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -7269,13 +7362,13 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B176" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C176" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
@@ -7295,13 +7388,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B177" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C177" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
@@ -7321,13 +7414,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B178" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C178" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
@@ -7347,13 +7440,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B179" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C179" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D179" t="s">
         <v>34</v>
@@ -7373,13 +7466,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B180" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C180" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D180" t="s">
         <v>34</v>
@@ -7399,13 +7492,13 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B181" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C181" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s">
         <v>13</v>
@@ -7417,10 +7510,10 @@
         <v>15</v>
       </c>
       <c r="G181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H181" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7431,13 +7524,13 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B182" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C182" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhijit\Desktop\GenAI2k24\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD6D965-F19B-44F2-9AD0-B2C9870952AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E480578-6D6F-4FDE-9A53-3B675983D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E95A081B-BAA5-42FD-B5F6-4DF83754500D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7EEA724-8D90-4E29-9D32-49F4243CC7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Indian Institute of Engineering" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="568">
   <si>
     <t>User Name</t>
   </si>
@@ -97,6 +97,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/157b5c5e-e26c-41e8-bf64-568913737c20</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
     <t>Suraj Kashyap</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9088d39c-1138-4e03-8382-70fdd93952a5</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
     <t>Pratyush Dhital</t>
   </si>
   <si>
@@ -229,7 +235,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/34aabe6a-b515-4915-b808-1ce55df27a3f</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
   </si>
   <si>
     <t>Mohammad Arafat Hussain</t>
@@ -289,9 +295,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/12627f23-75c7-4ac9-84a2-13fb86e486b5</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
     <t>Harsh Prasad</t>
   </si>
   <si>
@@ -301,7 +304,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/72aff046-786d-43ce-aa84-5559b0cad480</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
   </si>
   <si>
     <t>iamakashtechie.genai2024@gmail.com</t>
@@ -400,6 +403,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/ed886629-dd50-40ee-bb40-b6c1f65e55ca</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
     <t>Devojeet Vyapari</t>
   </si>
   <si>
@@ -610,7 +616,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/b85ef202-b1d9-4aa7-9608-f82e106a45c4</t>
   </si>
   <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
   </si>
   <si>
     <t>Ayush Kumar</t>
@@ -622,7 +628,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/c060500c-cdba-4d63-8a84-e0fa4eca989f</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge]</t>
   </si>
   <si>
     <t>Jayant Balkrishna Dhakate</t>
@@ -643,6 +649,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/e23b24fc-0c2c-4ee1-963b-111b227815fc</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
     <t>Ananta</t>
   </si>
   <si>
@@ -697,6 +706,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/a2f6f0a8-4eba-45ac-baa4-6dfcadc60ac6</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
     <t>Uttam Mahata</t>
   </si>
   <si>
@@ -814,7 +826,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/1ec99f0b-6fa7-44ba-bacb-cd8a2c321e9b</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
     <t>Abhishek kumar</t>
@@ -1039,6 +1051,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/a073b57c-88d3-4699-8f85-7c6266f84ee0</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
     <t>Mohit Yadav</t>
   </si>
   <si>
@@ -1210,9 +1225,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/12b36ff0-48ac-4718-b150-17ecbd1cfb6e</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
     <t>Arghadip Som</t>
   </si>
   <si>
@@ -1258,6 +1270,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/5ec1ee53-0fdb-49a8-b5eb-879bdd7e34b9</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
     <t>Sneha gupta</t>
   </si>
   <si>
@@ -1630,7 +1645,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4e3aee7e-2dbb-4dc1-8349-96b05b163f0a</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
   </si>
   <si>
     <t>Suchana Hazra</t>
@@ -2548,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DD5478-C5C7-41EA-872D-A5BFF1414EF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F89BA-4D58-436E-B576-B398CE3596AD}">
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2685,7 +2700,10 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2693,13 +2711,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -2719,13 +2737,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -2745,16 +2763,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -2771,13 +2789,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -2795,18 +2813,18 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2826,13 +2844,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -2852,13 +2870,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -2878,13 +2896,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -2904,13 +2922,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2930,13 +2948,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2956,13 +2974,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2974,7 +2992,10 @@
         <v>15</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2982,13 +3003,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -3003,7 +3024,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3011,13 +3032,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -3037,13 +3058,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -3055,27 +3076,27 @@
         <v>15</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -3095,13 +3116,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -3121,13 +3142,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -3142,24 +3163,24 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -3179,13 +3200,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -3205,13 +3226,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -3226,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3234,13 +3255,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -3252,27 +3273,27 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -3287,24 +3308,24 @@
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -3316,7 +3337,10 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3324,13 +3348,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3350,13 +3374,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -3376,13 +3400,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -3400,18 +3424,18 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -3431,13 +3455,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -3457,13 +3481,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -3483,13 +3507,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -3504,24 +3528,24 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -3541,13 +3565,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -3559,10 +3583,10 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3570,16 +3594,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -3596,13 +3620,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -3622,13 +3646,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -3648,13 +3672,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -3674,13 +3698,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3700,13 +3724,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3726,13 +3750,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3747,24 +3771,24 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -3782,18 +3806,18 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3811,18 +3835,18 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -3837,24 +3861,24 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3869,24 +3893,24 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -3906,13 +3930,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3932,13 +3956,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -3956,18 +3980,18 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3987,13 +4011,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -4008,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4016,13 +4040,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -4042,13 +4066,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -4068,13 +4092,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -4094,13 +4118,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -4115,24 +4139,24 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -4152,13 +4176,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -4176,18 +4200,18 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -4199,27 +4223,27 @@
         <v>15</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -4231,27 +4255,27 @@
         <v>15</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -4271,13 +4295,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -4289,10 +4313,10 @@
         <v>15</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4300,13 +4324,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -4324,18 +4348,18 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -4355,13 +4379,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -4381,13 +4405,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -4402,7 +4426,7 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4410,13 +4434,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -4436,13 +4460,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -4454,10 +4478,10 @@
         <v>15</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>228</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4465,13 +4489,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -4491,13 +4515,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -4517,13 +4541,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -4543,13 +4567,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -4561,7 +4585,10 @@
         <v>15</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>60</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -4569,13 +4596,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -4590,24 +4617,24 @@
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B75" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -4622,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4630,13 +4657,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4654,18 +4681,18 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -4685,13 +4712,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -4711,13 +4738,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -4729,10 +4756,10 @@
         <v>15</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4740,13 +4767,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C80" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -4758,10 +4785,10 @@
         <v>15</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4769,13 +4796,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -4790,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4798,13 +4825,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -4816,27 +4843,27 @@
         <v>15</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -4856,13 +4883,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -4880,18 +4907,18 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -4911,13 +4938,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C86" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -4937,13 +4964,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -4963,13 +4990,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -4989,13 +5016,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -5015,13 +5042,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C90" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -5036,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5044,13 +5071,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -5065,24 +5092,24 @@
         <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C92" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -5102,13 +5129,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -5123,24 +5150,24 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -5160,13 +5187,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C95" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -5186,13 +5213,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -5207,24 +5234,24 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -5244,13 +5271,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -5265,24 +5292,24 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C99" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -5302,13 +5329,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C100" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5328,13 +5355,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -5354,13 +5381,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5380,13 +5407,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5406,13 +5433,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -5432,13 +5459,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -5458,13 +5485,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B106" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -5476,10 +5503,10 @@
         <v>15</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5487,13 +5514,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C107" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -5513,13 +5540,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B108" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C108" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5539,13 +5566,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B109" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C109" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5565,13 +5592,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B110" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5591,13 +5618,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C111" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5617,13 +5644,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -5643,13 +5670,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B113" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C113" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -5669,13 +5696,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B114" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C114" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -5693,18 +5720,18 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B115" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C115" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -5724,13 +5751,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B116" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C116" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -5750,13 +5777,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C117" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -5776,13 +5803,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B118" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -5802,13 +5829,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B119" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -5828,13 +5855,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C120" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -5854,13 +5881,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C121" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -5880,13 +5907,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B122" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -5906,13 +5933,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B123" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C123" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -5932,13 +5959,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B124" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C124" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -5958,13 +5985,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B125" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C125" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -5979,24 +6006,24 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C126" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -6011,24 +6038,24 @@
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B127" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C127" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -6048,13 +6075,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B128" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C128" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -6072,18 +6099,18 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B129" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C129" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6101,18 +6128,18 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B130" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C130" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -6124,27 +6151,27 @@
         <v>15</v>
       </c>
       <c r="G130">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>174</v>
+        <v>416</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B131" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C131" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -6164,13 +6191,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B132" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -6190,16 +6217,16 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B133" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C133" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E133" t="s">
         <v>15</v>
@@ -6216,13 +6243,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B134" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C134" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -6237,24 +6264,24 @@
         <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B135" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C135" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -6274,16 +6301,16 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B136" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C136" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
@@ -6300,13 +6327,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B137" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C137" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -6326,13 +6353,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B138" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C138" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -6352,13 +6379,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B139" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C139" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -6378,13 +6405,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B140" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C140" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -6402,18 +6429,18 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C141" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
@@ -6428,24 +6455,24 @@
         <v>4</v>
       </c>
       <c r="H141" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B142" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C142" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -6465,13 +6492,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B143" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C143" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
@@ -6491,13 +6518,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B144" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C144" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
@@ -6517,13 +6544,13 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B145" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C145" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
@@ -6538,24 +6565,24 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B146" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C146" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
@@ -6575,13 +6602,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B147" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C147" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
@@ -6601,13 +6628,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B148" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C148" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
@@ -6627,13 +6654,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B149" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C149" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
@@ -6653,13 +6680,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B150" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C150" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
@@ -6679,13 +6706,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B151" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C151" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
@@ -6697,10 +6724,10 @@
         <v>15</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6708,13 +6735,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C152" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D152" t="s">
         <v>13</v>
@@ -6729,24 +6756,24 @@
         <v>9</v>
       </c>
       <c r="H152" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C153" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D153" t="s">
         <v>13</v>
@@ -6761,24 +6788,24 @@
         <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B154" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C154" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D154" t="s">
         <v>13</v>
@@ -6793,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -6801,13 +6828,13 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B155" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C155" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -6827,16 +6854,16 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C156" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
@@ -6853,13 +6880,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B157" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C157" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
@@ -6877,18 +6904,18 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B158" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C158" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D158" t="s">
         <v>13</v>
@@ -6908,16 +6935,16 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B159" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C159" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -6934,13 +6961,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B160" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -6955,24 +6982,24 @@
         <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B161" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D161" t="s">
         <v>13</v>
@@ -6992,13 +7019,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B162" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -7018,13 +7045,13 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B163" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C163" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D163" t="s">
         <v>13</v>
@@ -7044,13 +7071,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B164" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C164" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D164" t="s">
         <v>13</v>
@@ -7070,13 +7097,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B165" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C165" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D165" t="s">
         <v>13</v>
@@ -7096,13 +7123,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B166" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C166" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D166" t="s">
         <v>13</v>
@@ -7122,13 +7149,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B167" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C167" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D167" t="s">
         <v>13</v>
@@ -7148,13 +7175,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B168" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C168" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D168" t="s">
         <v>13</v>
@@ -7174,13 +7201,13 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B169" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C169" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
@@ -7200,13 +7227,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B170" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C170" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
@@ -7226,13 +7253,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B171" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C171" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D171" t="s">
         <v>13</v>
@@ -7252,13 +7279,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B172" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C172" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D172" t="s">
         <v>13</v>
@@ -7278,13 +7305,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B173" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C173" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D173" t="s">
         <v>13</v>
@@ -7296,27 +7323,27 @@
         <v>15</v>
       </c>
       <c r="G173">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="I173">
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B174" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C174" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
@@ -7336,13 +7363,13 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B175" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C175" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -7362,13 +7389,13 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B176" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C176" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
@@ -7388,13 +7415,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B177" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C177" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
@@ -7414,13 +7441,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B178" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C178" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
@@ -7440,16 +7467,16 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B179" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C179" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
@@ -7466,16 +7493,16 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B180" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C180" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -7492,13 +7519,13 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B181" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C181" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D181" t="s">
         <v>13</v>
@@ -7513,24 +7540,24 @@
         <v>5</v>
       </c>
       <c r="H181" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B182" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C182" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhijit\Desktop\GenAI2k24\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E480578-6D6F-4FDE-9A53-3B675983D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2145B5D3-66AB-41C7-87E0-30D004F3D5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7EEA724-8D90-4E29-9D32-49F4243CC7C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{258733F0-FC3F-4135-AC78-BFFC1EC78B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Indian Institute of Engineering" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="569">
   <si>
     <t>User Name</t>
   </si>
@@ -295,6 +295,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/12627f23-75c7-4ac9-84a2-13fb86e486b5</t>
   </si>
   <si>
+    <t>Diwali in The Arcade [Game]</t>
+  </si>
+  <si>
     <t>Harsh Prasad</t>
   </si>
   <si>
@@ -313,198 +316,201 @@
     <t>https://www.cloudskillsboost.google/public_profiles/ba2fa9f4-be0c-4a14-88fd-a85f8dd1bde0</t>
   </si>
   <si>
+    <t>Wadadare Piyush Rajendra</t>
+  </si>
+  <si>
+    <t>wadadarepiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d7f5622a-1532-416a-952f-2132ce32cc3a</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
+    <t>shaileshkumarj2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/538e38d4-73c2-4cd0-9710-dfd783386748</t>
+  </si>
+  <si>
+    <t>Harsh Kumar Sah</t>
+  </si>
+  <si>
+    <t>sahharsh787@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4815e3c5-5cb8-499d-92be-455f448252a3</t>
+  </si>
+  <si>
+    <t>sarthak23062003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/df60ec1d-69de-427f-82d5-651ae75322b5</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>anki95kr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5bef10aa-518b-48d2-b506-e02d1b520d12</t>
+  </si>
+  <si>
+    <t>Divyansh Srivastav</t>
+  </si>
+  <si>
+    <t>srivastavmohit9876@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/84bba77a-b11b-4fe5-b56e-8f7c60f5be7f</t>
+  </si>
+  <si>
+    <t>Ankit kumar</t>
+  </si>
+  <si>
+    <t>ankitmishra0917@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7cbdc2e4-060a-4114-bdd6-33cae60f2ed7</t>
+  </si>
+  <si>
+    <t>Ayush Dutta</t>
+  </si>
+  <si>
+    <t>ayushiiestsgdsc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b8a5831f-ffbe-42d4-aaaa-b1ada5b20261</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mehul Mehta</t>
+  </si>
+  <si>
+    <t>mehulmehta17113346@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f3a03eea-56c9-4c79-8bdd-235bf7845f2c</t>
+  </si>
+  <si>
+    <t>Yasharth Shukla</t>
+  </si>
+  <si>
+    <t>yasharthshukla01@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ed886629-dd50-40ee-bb40-b6c1f65e55ca</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Devojeet Vyapari</t>
+  </si>
+  <si>
+    <t>2024meb069.devojeet@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b91d8349-cc06-4d77-b972-d7b65a64fb9c</t>
+  </si>
+  <si>
+    <t>Ashika Shaw</t>
+  </si>
+  <si>
+    <t>ashikashaw1505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/37489f87-bf04-4275-822d-8e9d717f77f8</t>
+  </si>
+  <si>
+    <t>Rupak Jana</t>
+  </si>
+  <si>
+    <t>studyrupakh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6f115d34-bccc-4e6a-9e2e-8f52bad7f4c9</t>
+  </si>
+  <si>
+    <t>Arham Owais</t>
+  </si>
+  <si>
+    <t>arham2004.owais@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/40f80402-d840-464d-b082-f821c841c2ae</t>
+  </si>
+  <si>
+    <t>SANTOSH</t>
+  </si>
+  <si>
+    <t>santosh.csb084.mail@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c3569fd0-b38c-433a-ae29-ee2a0b7a155d</t>
+  </si>
+  <si>
+    <t>Vipin Kumar Chaudhary</t>
+  </si>
+  <si>
+    <t>vipinjietb070@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6bef4b12-e47b-444f-8d07-6b6156220332</t>
+  </si>
+  <si>
+    <t>Tapash Jaiswal</t>
+  </si>
+  <si>
+    <t>2023csb046.tapash@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a1fae5ef-1abe-4cc2-bd0e-08b58b4bd757</t>
+  </si>
+  <si>
+    <t>Soureen karmakar</t>
+  </si>
+  <si>
+    <t>2023itb075.soureen@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6ec301b6-6525-4b13-9129-767e3e3a5a13</t>
+  </si>
+  <si>
+    <t>Ankur Mukherjee</t>
+  </si>
+  <si>
+    <t>mukherjeeankur0073@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6de2f67f-45c2-4f89-9230-ac8a4e3ae631</t>
+  </si>
+  <si>
+    <t>Vaibhav Singh</t>
+  </si>
+  <si>
+    <t>vaibhavdmcsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e7594041-90e9-41fc-9e18-a874c20a39fe</t>
+  </si>
+  <si>
+    <t>Subhoshri Pal</t>
+  </si>
+  <si>
+    <t>cordeliaherondale720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c4075567-e71b-4582-a195-a3f01034b09d</t>
+  </si>
+  <si>
     <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
   </si>
   <si>
-    <t>Wadadare Piyush Rajendra</t>
-  </si>
-  <si>
-    <t>wadadarepiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d7f5622a-1532-416a-952f-2132ce32cc3a</t>
-  </si>
-  <si>
-    <t>shaileshkumarj2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/538e38d4-73c2-4cd0-9710-dfd783386748</t>
-  </si>
-  <si>
-    <t>Harsh Kumar Sah</t>
-  </si>
-  <si>
-    <t>sahharsh787@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4815e3c5-5cb8-499d-92be-455f448252a3</t>
-  </si>
-  <si>
-    <t>sarthak23062003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/df60ec1d-69de-427f-82d5-651ae75322b5</t>
-  </si>
-  <si>
-    <t>Ankit Kumar</t>
-  </si>
-  <si>
-    <t>anki95kr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5bef10aa-518b-48d2-b506-e02d1b520d12</t>
-  </si>
-  <si>
-    <t>Divyansh Srivastav</t>
-  </si>
-  <si>
-    <t>srivastavmohit9876@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/84bba77a-b11b-4fe5-b56e-8f7c60f5be7f</t>
-  </si>
-  <si>
-    <t>Ankit kumar</t>
-  </si>
-  <si>
-    <t>ankitmishra0917@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7cbdc2e4-060a-4114-bdd6-33cae60f2ed7</t>
-  </si>
-  <si>
-    <t>Ayush Dutta</t>
-  </si>
-  <si>
-    <t>ayushiiestsgdsc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b8a5831f-ffbe-42d4-aaaa-b1ada5b20261</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mehul Mehta</t>
-  </si>
-  <si>
-    <t>mehulmehta17113346@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f3a03eea-56c9-4c79-8bdd-235bf7845f2c</t>
-  </si>
-  <si>
-    <t>Yasharth Shukla</t>
-  </si>
-  <si>
-    <t>yasharthshukla01@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ed886629-dd50-40ee-bb40-b6c1f65e55ca</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Devojeet Vyapari</t>
-  </si>
-  <si>
-    <t>2024meb069.devojeet@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b91d8349-cc06-4d77-b972-d7b65a64fb9c</t>
-  </si>
-  <si>
-    <t>Ashika Shaw</t>
-  </si>
-  <si>
-    <t>ashikashaw1505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/37489f87-bf04-4275-822d-8e9d717f77f8</t>
-  </si>
-  <si>
-    <t>Rupak Jana</t>
-  </si>
-  <si>
-    <t>studyrupakh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6f115d34-bccc-4e6a-9e2e-8f52bad7f4c9</t>
-  </si>
-  <si>
-    <t>Arham Owais</t>
-  </si>
-  <si>
-    <t>arham2004.owais@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/40f80402-d840-464d-b082-f821c841c2ae</t>
-  </si>
-  <si>
-    <t>SANTOSH</t>
-  </si>
-  <si>
-    <t>santosh.csb084.mail@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c3569fd0-b38c-433a-ae29-ee2a0b7a155d</t>
-  </si>
-  <si>
-    <t>Vipin Kumar Chaudhary</t>
-  </si>
-  <si>
-    <t>vipinjietb070@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6bef4b12-e47b-444f-8d07-6b6156220332</t>
-  </si>
-  <si>
-    <t>Tapash Jaiswal</t>
-  </si>
-  <si>
-    <t>2023csb046.tapash@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a1fae5ef-1abe-4cc2-bd0e-08b58b4bd757</t>
-  </si>
-  <si>
-    <t>Soureen karmakar</t>
-  </si>
-  <si>
-    <t>2023itb075.soureen@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6ec301b6-6525-4b13-9129-767e3e3a5a13</t>
-  </si>
-  <si>
-    <t>Ankur Mukherjee</t>
-  </si>
-  <si>
-    <t>mukherjeeankur0073@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6de2f67f-45c2-4f89-9230-ac8a4e3ae631</t>
-  </si>
-  <si>
-    <t>Vaibhav Singh</t>
-  </si>
-  <si>
-    <t>vaibhavdmcsingh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e7594041-90e9-41fc-9e18-a874c20a39fe</t>
-  </si>
-  <si>
-    <t>Subhoshri Pal</t>
-  </si>
-  <si>
-    <t>cordeliaherondale720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c4075567-e71b-4582-a195-a3f01034b09d</t>
-  </si>
-  <si>
     <t>Tejas Pawar</t>
   </si>
   <si>
@@ -808,6 +814,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/c4e8b98b-826e-495a-a234-3ce32f33c997</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
     <t>Subhrajyoti Sarkar</t>
   </si>
   <si>
@@ -1051,9 +1060,6 @@
     <t>https://www.cloudskillsboost.google/public_profiles/a073b57c-88d3-4699-8f85-7c6266f84ee0</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
     <t>Mohit Yadav</t>
   </si>
   <si>
@@ -1465,16 +1471,13 @@
     <t>https://www.cloudskillsboost.google/public_profiles/ef2329d4-0d26-49f5-b3c6-301f7f0b86be</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge]</t>
   </si>
   <si>
     <t>a.kumarishalu113@gmail.com</t>
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/7bcc7efb-3170-4f57-8789-4c0441853705</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
   </si>
   <si>
     <t>Liya Mufizraza Shabbir</t>
@@ -2563,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F89BA-4D58-436E-B576-B398CE3596AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BC980D-5199-4875-BF2C-E548BEABAC29}">
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3250,18 +3253,21 @@
         <v>25</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -3276,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3290,10 +3296,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -3305,10 +3311,10 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -3331,16 +3337,16 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3351,10 +3357,10 @@
         <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3374,13 +3380,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -3403,10 +3409,10 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -3429,13 +3435,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -3455,13 +3461,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -3481,13 +3487,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -3507,13 +3513,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -3528,7 +3534,7 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3539,13 +3545,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -3565,13 +3571,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -3583,10 +3589,10 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3594,13 +3600,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -3620,13 +3626,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -3646,13 +3652,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -3672,13 +3678,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -3698,13 +3704,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3724,13 +3730,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3750,13 +3756,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3771,7 +3777,7 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3782,13 +3788,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -3811,13 +3817,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3840,13 +3846,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -3861,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3872,13 +3878,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3893,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3904,13 +3910,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -3930,13 +3936,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3956,13 +3962,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -3985,13 +3991,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -4011,13 +4017,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -4032,7 +4038,7 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4040,13 +4046,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -4066,13 +4072,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -4092,13 +4098,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -4118,13 +4124,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -4150,13 +4156,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -4176,13 +4182,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -4205,13 +4211,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -4226,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -4237,13 +4243,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -4258,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -4269,13 +4275,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -4295,13 +4301,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -4316,7 +4322,7 @@
         <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4324,13 +4330,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -4342,7 +4348,10 @@
         <v>15</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -4353,13 +4362,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -4379,13 +4388,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -4405,13 +4414,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -4434,13 +4443,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -4460,13 +4469,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -4481,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4489,13 +4498,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -4515,13 +4524,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -4541,13 +4550,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -4567,13 +4576,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -4596,13 +4605,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -4617,7 +4626,7 @@
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -4628,13 +4637,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -4649,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4657,13 +4666,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4686,13 +4695,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -4712,13 +4721,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -4738,13 +4747,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -4756,10 +4765,10 @@
         <v>15</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4767,13 +4776,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -4785,10 +4794,10 @@
         <v>15</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H80" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4796,13 +4805,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C81" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -4825,13 +4834,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C82" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -4846,7 +4855,7 @@
         <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4857,13 +4866,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -4883,13 +4892,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -4912,13 +4921,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -4938,13 +4947,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B86" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C86" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -4964,13 +4973,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -4990,13 +4999,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -5016,13 +5025,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -5042,13 +5051,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -5071,13 +5080,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B91" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -5092,7 +5101,7 @@
         <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -5103,13 +5112,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -5129,13 +5138,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -5161,13 +5170,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -5187,13 +5196,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C95" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -5213,13 +5222,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -5245,13 +5254,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C97" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -5271,13 +5280,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C98" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -5292,7 +5301,7 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -5303,13 +5312,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C99" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -5329,13 +5338,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C100" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5355,13 +5364,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B101" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -5381,13 +5390,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5407,13 +5416,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5433,13 +5442,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -5459,13 +5468,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C105" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -5485,13 +5494,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C106" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -5506,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5514,13 +5523,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B107" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C107" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -5540,13 +5549,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C108" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5566,13 +5575,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B109" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5592,13 +5601,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5618,13 +5627,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5644,13 +5653,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B112" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C112" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -5670,13 +5679,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B113" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C113" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -5696,13 +5705,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B114" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -5725,13 +5734,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C115" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -5751,13 +5760,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B116" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -5777,13 +5786,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B117" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C117" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -5803,13 +5812,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B118" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -5829,13 +5838,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C119" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -5855,13 +5864,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B120" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C120" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -5881,13 +5890,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B121" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -5907,13 +5916,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C122" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -5933,13 +5942,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B123" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C123" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -5959,13 +5968,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B124" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C124" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -5985,13 +5994,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B125" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C125" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -6006,7 +6015,7 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -6017,13 +6026,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C126" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -6049,13 +6058,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B127" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C127" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -6075,13 +6084,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B128" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C128" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -6104,13 +6113,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B129" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C129" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6133,13 +6142,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B130" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C130" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -6154,7 +6163,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -6165,13 +6174,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B131" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C131" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -6191,13 +6200,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B132" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C132" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -6217,13 +6226,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B133" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C133" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D133" t="s">
         <v>35</v>
@@ -6243,13 +6252,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B134" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C134" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -6275,13 +6284,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B135" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C135" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -6301,13 +6310,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B136" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C136" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D136" t="s">
         <v>35</v>
@@ -6327,13 +6336,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B137" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C137" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -6353,13 +6362,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B138" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C138" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -6379,13 +6388,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B139" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C139" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -6405,13 +6414,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B140" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C140" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -6437,10 +6446,10 @@
         <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C141" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
@@ -6455,7 +6464,7 @@
         <v>4</v>
       </c>
       <c r="H141" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6466,13 +6475,13 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B142" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C142" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -6492,13 +6501,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B143" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C143" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
@@ -6518,13 +6527,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B144" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C144" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
@@ -6544,13 +6553,13 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B145" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C145" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
@@ -6576,13 +6585,13 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B146" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C146" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
@@ -6602,13 +6611,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B147" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C147" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
@@ -6628,13 +6637,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B148" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C148" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
@@ -6654,13 +6663,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C149" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
@@ -6680,13 +6689,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B150" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C150" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
@@ -6706,13 +6715,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B151" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C151" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
@@ -6735,13 +6744,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B152" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C152" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D152" t="s">
         <v>13</v>
@@ -6753,10 +6762,10 @@
         <v>15</v>
       </c>
       <c r="G152">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -6767,13 +6776,13 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C153" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D153" t="s">
         <v>13</v>
@@ -6782,13 +6791,13 @@
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G153">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H153" t="s">
-        <v>484</v>
+        <v>121</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -6799,13 +6808,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B154" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C154" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D154" t="s">
         <v>13</v>
@@ -6828,13 +6837,13 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B155" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C155" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -6854,13 +6863,13 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B156" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C156" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D156" t="s">
         <v>35</v>
@@ -6880,13 +6889,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B157" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C157" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
@@ -6909,13 +6918,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B158" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C158" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D158" t="s">
         <v>13</v>
@@ -6935,13 +6944,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B159" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C159" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D159" t="s">
         <v>35</v>
@@ -6961,13 +6970,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B160" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C160" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
@@ -6982,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6993,13 +7002,13 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B161" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C161" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D161" t="s">
         <v>13</v>
@@ -7019,13 +7028,13 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B162" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C162" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D162" t="s">
         <v>13</v>
@@ -7045,13 +7054,13 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B163" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C163" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D163" t="s">
         <v>13</v>
@@ -7071,13 +7080,13 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B164" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C164" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D164" t="s">
         <v>13</v>
@@ -7097,13 +7106,13 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B165" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C165" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D165" t="s">
         <v>13</v>
@@ -7123,13 +7132,13 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B166" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C166" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D166" t="s">
         <v>13</v>
@@ -7149,13 +7158,13 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B167" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C167" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D167" t="s">
         <v>13</v>
@@ -7175,13 +7184,13 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B168" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C168" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D168" t="s">
         <v>13</v>
@@ -7201,13 +7210,13 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B169" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C169" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
@@ -7227,13 +7236,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B170" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C170" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
@@ -7253,13 +7262,13 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B171" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C171" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D171" t="s">
         <v>13</v>
@@ -7279,13 +7288,13 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B172" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C172" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D172" t="s">
         <v>13</v>
@@ -7305,13 +7314,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B173" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C173" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D173" t="s">
         <v>13</v>
@@ -7326,7 +7335,7 @@
         <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -7337,13 +7346,13 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B174" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C174" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
@@ -7363,13 +7372,13 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B175" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C175" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -7389,13 +7398,13 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B176" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C176" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
@@ -7415,13 +7424,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B177" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C177" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
@@ -7441,13 +7450,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B178" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C178" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
@@ -7467,13 +7476,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B179" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C179" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D179" t="s">
         <v>35</v>
@@ -7493,13 +7502,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B180" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C180" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D180" t="s">
         <v>35</v>
@@ -7519,13 +7528,13 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B181" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C181" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D181" t="s">
         <v>13</v>
@@ -7551,13 +7560,13 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B182" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C182" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>

--- a/public/assets/data/leaderboard.xlsx
+++ b/public/assets/data/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhijit\Desktop\GenAI2k24\public\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2145B5D3-66AB-41C7-87E0-30D004F3D5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E31822B4-6E60-4061-9521-AD3A60FC8E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{258733F0-FC3F-4135-AC78-BFFC1EC78B7E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A034763-A12C-466F-A9C9-D6150ADE0883}"/>
   </bookViews>
   <sheets>
     <sheet name="Indian Institute of Engineering" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="570">
   <si>
     <t>User Name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/cef4822d-6f35-43f7-bfb2-9fce21ceaf16</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
     <t>Level 3: Google Cloud Adventures [Game]</t>
   </si>
   <si>
@@ -202,555 +205,546 @@
     <t>https://www.cloudskillsboost.google/public_profiles/9088d39c-1138-4e03-8382-70fdd93952a5</t>
   </si>
   <si>
+    <t>Pratyush Dhital</t>
+  </si>
+  <si>
+    <t>2023csb101.pratyush@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8e2e9afb-345e-4718-bde7-88b05a4a70f9</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Akash Shaw</t>
+  </si>
+  <si>
+    <t>iamakashtechie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/730776de-a9ef-4a82-8bff-204f441fb44d</t>
+  </si>
+  <si>
+    <t>Aaratrika Sarkar</t>
+  </si>
+  <si>
+    <t>deyawhatsapp@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34aabe6a-b515-4915-b808-1ce55df27a3f</t>
+  </si>
+  <si>
+    <t>Mohammad Arafat Hussain</t>
+  </si>
+  <si>
+    <t>arafatjams2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/71386a30-9974-490d-a673-270653ad2098</t>
+  </si>
+  <si>
+    <t>Ahana Ganguly</t>
+  </si>
+  <si>
+    <t>2023etb012.ahana@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0c481726-4f2d-4014-9e37-084bdf13d473</t>
+  </si>
+  <si>
+    <t>Sumit Kumar</t>
+  </si>
+  <si>
+    <t>sumitkr.iiests@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fdfffd7f-77cf-4046-bb3a-cc12b781508d</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sarthak Singh</t>
+  </si>
+  <si>
+    <t>its23.sar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6084e0f7-aab4-4ae1-9e1b-99c62d593947</t>
+  </si>
+  <si>
+    <t>Shailesh Kumar</t>
+  </si>
+  <si>
+    <t>2023meb030.shailesh@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d82b1d8-c1a4-42a4-803d-2e3e4c62e5f0</t>
+  </si>
+  <si>
+    <t>Sudipta Dhar</t>
+  </si>
+  <si>
+    <t>sudiptodhar30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12627f23-75c7-4ac9-84a2-13fb86e486b5</t>
+  </si>
+  <si>
+    <t>Diwali in The Arcade [Game]</t>
+  </si>
+  <si>
+    <t>Harsh Prasad</t>
+  </si>
+  <si>
+    <t>hp.prasadharsh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/72aff046-786d-43ce-aa84-5559b0cad480</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>iamakashtechie.genai2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ba2fa9f4-be0c-4a14-88fd-a85f8dd1bde0</t>
+  </si>
+  <si>
+    <t>Wadadare Piyush Rajendra</t>
+  </si>
+  <si>
+    <t>wadadarepiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d7f5622a-1532-416a-952f-2132ce32cc3a</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
+    <t>shaileshkumarj2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/538e38d4-73c2-4cd0-9710-dfd783386748</t>
+  </si>
+  <si>
+    <t>Harsh Kumar Sah</t>
+  </si>
+  <si>
+    <t>sahharsh787@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4815e3c5-5cb8-499d-92be-455f448252a3</t>
+  </si>
+  <si>
+    <t>sarthak23062003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/df60ec1d-69de-427f-82d5-651ae75322b5</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>anki95kr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5bef10aa-518b-48d2-b506-e02d1b520d12</t>
+  </si>
+  <si>
+    <t>Divyansh Srivastav</t>
+  </si>
+  <si>
+    <t>srivastavmohit9876@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/84bba77a-b11b-4fe5-b56e-8f7c60f5be7f</t>
+  </si>
+  <si>
+    <t>Ankit kumar</t>
+  </si>
+  <si>
+    <t>ankitmishra0917@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7cbdc2e4-060a-4114-bdd6-33cae60f2ed7</t>
+  </si>
+  <si>
+    <t>Ayush Dutta</t>
+  </si>
+  <si>
+    <t>ayushiiestsgdsc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b8a5831f-ffbe-42d4-aaaa-b1ada5b20261</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mehul Mehta</t>
+  </si>
+  <si>
+    <t>mehulmehta17113346@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f3a03eea-56c9-4c79-8bdd-235bf7845f2c</t>
+  </si>
+  <si>
+    <t>Yasharth Shukla</t>
+  </si>
+  <si>
+    <t>yasharthshukla01@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ed886629-dd50-40ee-bb40-b6c1f65e55ca</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Devojeet Vyapari</t>
+  </si>
+  <si>
+    <t>2024meb069.devojeet@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b91d8349-cc06-4d77-b972-d7b65a64fb9c</t>
+  </si>
+  <si>
+    <t>Ashika Shaw</t>
+  </si>
+  <si>
+    <t>ashikashaw1505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/37489f87-bf04-4275-822d-8e9d717f77f8</t>
+  </si>
+  <si>
+    <t>Rupak Jana</t>
+  </si>
+  <si>
+    <t>studyrupakh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6f115d34-bccc-4e6a-9e2e-8f52bad7f4c9</t>
+  </si>
+  <si>
+    <t>Arham Owais</t>
+  </si>
+  <si>
+    <t>arham2004.owais@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/40f80402-d840-464d-b082-f821c841c2ae</t>
+  </si>
+  <si>
+    <t>SANTOSH</t>
+  </si>
+  <si>
+    <t>santosh.csb084.mail@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c3569fd0-b38c-433a-ae29-ee2a0b7a155d</t>
+  </si>
+  <si>
+    <t>Vipin Kumar Chaudhary</t>
+  </si>
+  <si>
+    <t>vipinjietb070@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6bef4b12-e47b-444f-8d07-6b6156220332</t>
+  </si>
+  <si>
+    <t>Tapash Jaiswal</t>
+  </si>
+  <si>
+    <t>2023csb046.tapash@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a1fae5ef-1abe-4cc2-bd0e-08b58b4bd757</t>
+  </si>
+  <si>
+    <t>Soureen karmakar</t>
+  </si>
+  <si>
+    <t>2023itb075.soureen@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6ec301b6-6525-4b13-9129-767e3e3a5a13</t>
+  </si>
+  <si>
+    <t>Ankur Mukherjee</t>
+  </si>
+  <si>
+    <t>mukherjeeankur0073@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6de2f67f-45c2-4f89-9230-ac8a4e3ae631</t>
+  </si>
+  <si>
+    <t>Vaibhav Singh</t>
+  </si>
+  <si>
+    <t>vaibhavdmcsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e7594041-90e9-41fc-9e18-a874c20a39fe</t>
+  </si>
+  <si>
+    <t>Subhoshri Pal</t>
+  </si>
+  <si>
+    <t>cordeliaherondale720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c4075567-e71b-4582-a195-a3f01034b09d</t>
+  </si>
+  <si>
+    <t>Tejas Pawar</t>
+  </si>
+  <si>
+    <t>tejaspawar62689@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56b0a492-2b0f-49c7-ab41-35f1e47f7fdd</t>
+  </si>
+  <si>
+    <t>Abhinn Prakash Yadav</t>
+  </si>
+  <si>
+    <t>abhinnprakashyadav@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cea61356-74ac-4e83-9ea5-43347b36b11b</t>
+  </si>
+  <si>
+    <t>Abhideep Choubey</t>
+  </si>
+  <si>
+    <t>cutehandsomechokhra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9fcf70a6-3f49-4f6c-9e96-bb06fc5f0b40</t>
+  </si>
+  <si>
+    <t>Chaitanya Gupta</t>
+  </si>
+  <si>
+    <t>manishagupta270678@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f09d7a5-a57e-4457-8320-34b3ff010a29</t>
+  </si>
+  <si>
+    <t>Rohit Hansda</t>
+  </si>
+  <si>
+    <t>codersevix@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/84076072-65ba-4807-9c3e-db805a9161bb</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sayan Roy</t>
+  </si>
+  <si>
+    <t>sayanroy7987@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7f7a1e60-e060-4abf-b410-967feb69f707?locale=tr</t>
+  </si>
+  <si>
+    <t>Shivam Kumar</t>
+  </si>
+  <si>
+    <t>2024ceb003.shivam@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/05b4a896-90e4-4f19-b774-8c2e382252b7</t>
+  </si>
+  <si>
+    <t>Shalu Kumari</t>
+  </si>
+  <si>
+    <t>shalukumari93129@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5273167f-46fc-4763-88d5-708739b375ac</t>
+  </si>
+  <si>
+    <t>Anshita</t>
+  </si>
+  <si>
+    <t>mishraanshita990@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6386c175-2bae-4232-b2e7-590c5554daeb</t>
+  </si>
+  <si>
+    <t>Tejash Kapoor</t>
+  </si>
+  <si>
+    <t>kapoortejash7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/42a3f618-b316-42de-b857-dd1e080c9323</t>
+  </si>
+  <si>
+    <t>Pritam Mondal</t>
+  </si>
+  <si>
+    <t>2022itb066.pritam@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a5316abd-6d6e-49f4-9b2c-22afb7ab7aaa</t>
+  </si>
+  <si>
+    <t>GAURAV KUMAR</t>
+  </si>
+  <si>
+    <t>grvboost@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b85ef202-b1d9-4aa7-9608-f82e106a45c4</t>
+  </si>
+  <si>
+    <t>Ayush Kumar</t>
+  </si>
+  <si>
+    <t>ayushkumar.iiests@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c060500c-cdba-4d63-8a84-e0fa4eca989f</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Jayant Balkrishna Dhakate</t>
+  </si>
+  <si>
+    <t>2023amb034.jayant@students.iiests.ac.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e7d5536-27a1-465a-8c73-5cd92cd9338a</t>
+  </si>
+  <si>
+    <t>Yash Avinash Mahajan</t>
+  </si>
+  <si>
+    <t>pheonixnightshade521@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e23b24fc-0c2c-4ee1-963b-111b227815fc</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ananta</t>
+  </si>
+  <si>
+    <t>anantapandey0411@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f799a4a4-d4d7-4126-adb5-01f3db65d2ec</t>
+  </si>
+  <si>
+    <t>Sagnik Jana</t>
+  </si>
+  <si>
+    <t>janasagnik66@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17f9da92-f7d7-49e8-b5d8-861fa5fc15b3</t>
+  </si>
+  <si>
+    <t>Swarnima Kumari</t>
+  </si>
+  <si>
+    <t>professionalworkmanage321@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e79bf61-0986-4397-98d3-266da50764f3</t>
+  </si>
+  <si>
+    <t>Manik</t>
+  </si>
+  <si>
+    <t>sheoranmanik@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3813f01e-219b-4902-8884-3558dedcd697</t>
+  </si>
+  <si>
+    <t>Goutam Samanta</t>
+  </si>
+  <si>
+    <t>nemaisamanta30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/371027ef-0b0c-43c7-9cba-064f5d0aa32f</t>
+  </si>
+  <si>
+    <t>Abhirup Saha</t>
+  </si>
+  <si>
+    <t>abhi06622@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2f6f0a8-4eba-45ac-baa4-6dfcadc60ac6</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Uttam Mahata</t>
+  </si>
+  <si>
+    <t>mahatauttam2004@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9b49d841-1db9-4d55-988f-fdf6bdd6a557</t>
+  </si>
+  <si>
+    <t>Ramkrishna kumar</t>
+  </si>
+  <si>
+    <t>kramkrishna121@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/aa090534-9cba-42e5-abe1-edffb1fa81bf</t>
+  </si>
+  <si>
+    <t>Diya Ghosh</t>
+  </si>
+  <si>
+    <t>diya1692005ne@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/26bf1c95-c66e-4a83-bcea-dd684c86fac1</t>
+  </si>
+  <si>
+    <t>Mansi Mehra</t>
+  </si>
+  <si>
+    <t>mansi2004mehra18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c5166d9d-a202-4f09-84c4-1238317c310b</t>
+  </si>
+  <si>
     <t>The Basics of Google Cloud Compute [Skill Badge]</t>
   </si>
   <si>
-    <t>Pratyush Dhital</t>
-  </si>
-  <si>
-    <t>2023csb101.pratyush@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8e2e9afb-345e-4718-bde7-88b05a4a70f9</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Akash Shaw</t>
-  </si>
-  <si>
-    <t>iamakashtechie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/730776de-a9ef-4a82-8bff-204f441fb44d</t>
-  </si>
-  <si>
-    <t>Aaratrika Sarkar</t>
-  </si>
-  <si>
-    <t>deyawhatsapp@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34aabe6a-b515-4915-b808-1ce55df27a3f</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mohammad Arafat Hussain</t>
-  </si>
-  <si>
-    <t>arafatjams2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/71386a30-9974-490d-a673-270653ad2098</t>
-  </si>
-  <si>
-    <t>Ahana Ganguly</t>
-  </si>
-  <si>
-    <t>2023etb012.ahana@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0c481726-4f2d-4014-9e37-084bdf13d473</t>
-  </si>
-  <si>
-    <t>Sumit Kumar</t>
-  </si>
-  <si>
-    <t>sumitkr.iiests@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fdfffd7f-77cf-4046-bb3a-cc12b781508d</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sarthak Singh</t>
-  </si>
-  <si>
-    <t>its23.sar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6084e0f7-aab4-4ae1-9e1b-99c62d593947</t>
-  </si>
-  <si>
-    <t>Shailesh Kumar</t>
-  </si>
-  <si>
-    <t>2023meb030.shailesh@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d82b1d8-c1a4-42a4-803d-2e3e4c62e5f0</t>
-  </si>
-  <si>
-    <t>Sudipta Dhar</t>
-  </si>
-  <si>
-    <t>sudiptodhar30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12627f23-75c7-4ac9-84a2-13fb86e486b5</t>
-  </si>
-  <si>
-    <t>Diwali in The Arcade [Game]</t>
-  </si>
-  <si>
-    <t>Harsh Prasad</t>
-  </si>
-  <si>
-    <t>hp.prasadharsh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/72aff046-786d-43ce-aa84-5559b0cad480</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>iamakashtechie.genai2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ba2fa9f4-be0c-4a14-88fd-a85f8dd1bde0</t>
-  </si>
-  <si>
-    <t>Wadadare Piyush Rajendra</t>
-  </si>
-  <si>
-    <t>wadadarepiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d7f5622a-1532-416a-952f-2132ce32cc3a</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
-    <t>shaileshkumarj2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/538e38d4-73c2-4cd0-9710-dfd783386748</t>
-  </si>
-  <si>
-    <t>Harsh Kumar Sah</t>
-  </si>
-  <si>
-    <t>sahharsh787@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4815e3c5-5cb8-499d-92be-455f448252a3</t>
-  </si>
-  <si>
-    <t>sarthak23062003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/df60ec1d-69de-427f-82d5-651ae75322b5</t>
-  </si>
-  <si>
-    <t>Ankit Kumar</t>
-  </si>
-  <si>
-    <t>anki95kr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5bef10aa-518b-48d2-b506-e02d1b520d12</t>
-  </si>
-  <si>
-    <t>Divyansh Srivastav</t>
-  </si>
-  <si>
-    <t>srivastavmohit9876@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/84bba77a-b11b-4fe5-b56e-8f7c60f5be7f</t>
-  </si>
-  <si>
-    <t>Ankit kumar</t>
-  </si>
-  <si>
-    <t>ankitmishra0917@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7cbdc2e4-060a-4114-bdd6-33cae60f2ed7</t>
-  </si>
-  <si>
-    <t>Ayush Dutta</t>
-  </si>
-  <si>
-    <t>ayushiiestsgdsc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b8a5831f-ffbe-42d4-aaaa-b1ada5b20261</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mehul Mehta</t>
-  </si>
-  <si>
-    <t>mehulmehta17113346@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f3a03eea-56c9-4c79-8bdd-235bf7845f2c</t>
-  </si>
-  <si>
-    <t>Yasharth Shukla</t>
-  </si>
-  <si>
-    <t>yasharthshukla01@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ed886629-dd50-40ee-bb40-b6c1f65e55ca</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Devojeet Vyapari</t>
-  </si>
-  <si>
-    <t>2024meb069.devojeet@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b91d8349-cc06-4d77-b972-d7b65a64fb9c</t>
-  </si>
-  <si>
-    <t>Ashika Shaw</t>
-  </si>
-  <si>
-    <t>ashikashaw1505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/37489f87-bf04-4275-822d-8e9d717f77f8</t>
-  </si>
-  <si>
-    <t>Rupak Jana</t>
-  </si>
-  <si>
-    <t>studyrupakh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6f115d34-bccc-4e6a-9e2e-8f52bad7f4c9</t>
-  </si>
-  <si>
-    <t>Arham Owais</t>
-  </si>
-  <si>
-    <t>arham2004.owais@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/40f80402-d840-464d-b082-f821c841c2ae</t>
-  </si>
-  <si>
-    <t>SANTOSH</t>
-  </si>
-  <si>
-    <t>santosh.csb084.mail@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c3569fd0-b38c-433a-ae29-ee2a0b7a155d</t>
-  </si>
-  <si>
-    <t>Vipin Kumar Chaudhary</t>
-  </si>
-  <si>
-    <t>vipinjietb070@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6bef4b12-e47b-444f-8d07-6b6156220332</t>
-  </si>
-  <si>
-    <t>Tapash Jaiswal</t>
-  </si>
-  <si>
-    <t>2023csb046.tapash@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a1fae5ef-1abe-4cc2-bd0e-08b58b4bd757</t>
-  </si>
-  <si>
-    <t>Soureen karmakar</t>
-  </si>
-  <si>
-    <t>2023itb075.soureen@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6ec301b6-6525-4b13-9129-767e3e3a5a13</t>
-  </si>
-  <si>
-    <t>Ankur Mukherjee</t>
-  </si>
-  <si>
-    <t>mukherjeeankur0073@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6de2f67f-45c2-4f89-9230-ac8a4e3ae631</t>
-  </si>
-  <si>
-    <t>Vaibhav Singh</t>
-  </si>
-  <si>
-    <t>vaibhavdmcsingh@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e7594041-90e9-41fc-9e18-a874c20a39fe</t>
-  </si>
-  <si>
-    <t>Subhoshri Pal</t>
-  </si>
-  <si>
-    <t>cordeliaherondale720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c4075567-e71b-4582-a195-a3f01034b09d</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Tejas Pawar</t>
-  </si>
-  <si>
-    <t>tejaspawar62689@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56b0a492-2b0f-49c7-ab41-35f1e47f7fdd</t>
-  </si>
-  <si>
-    <t>Abhinn Prakash Yadav</t>
-  </si>
-  <si>
-    <t>abhinnprakashyadav@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cea61356-74ac-4e83-9ea5-43347b36b11b</t>
-  </si>
-  <si>
-    <t>Abhideep Choubey</t>
-  </si>
-  <si>
-    <t>cutehandsomechokhra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9fcf70a6-3f49-4f6c-9e96-bb06fc5f0b40</t>
-  </si>
-  <si>
-    <t>Chaitanya Gupta</t>
-  </si>
-  <si>
-    <t>manishagupta270678@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f09d7a5-a57e-4457-8320-34b3ff010a29</t>
-  </si>
-  <si>
-    <t>Rohit Hansda</t>
-  </si>
-  <si>
-    <t>codersevix@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/84076072-65ba-4807-9c3e-db805a9161bb</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Sayan Roy</t>
-  </si>
-  <si>
-    <t>sayanroy7987@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7f7a1e60-e060-4abf-b410-967feb69f707?locale=tr</t>
-  </si>
-  <si>
-    <t>Shivam Kumar</t>
-  </si>
-  <si>
-    <t>2024ceb003.shivam@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/05b4a896-90e4-4f19-b774-8c2e382252b7</t>
-  </si>
-  <si>
-    <t>Shalu Kumari</t>
-  </si>
-  <si>
-    <t>shalukumari93129@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5273167f-46fc-4763-88d5-708739b375ac</t>
-  </si>
-  <si>
-    <t>Anshita</t>
-  </si>
-  <si>
-    <t>mishraanshita990@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6386c175-2bae-4232-b2e7-590c5554daeb</t>
-  </si>
-  <si>
-    <t>Tejash Kapoor</t>
-  </si>
-  <si>
-    <t>kapoortejash7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/42a3f618-b316-42de-b857-dd1e080c9323</t>
-  </si>
-  <si>
-    <t>Pritam Mondal</t>
-  </si>
-  <si>
-    <t>2022itb066.pritam@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a5316abd-6d6e-49f4-9b2c-22afb7ab7aaa</t>
-  </si>
-  <si>
-    <t>GAURAV KUMAR</t>
-  </si>
-  <si>
-    <t>grvboost@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b85ef202-b1d9-4aa7-9608-f82e106a45c4</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ayush Kumar</t>
-  </si>
-  <si>
-    <t>ayushkumar.iiests@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c060500c-cdba-4d63-8a84-e0fa4eca989f</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Jayant Balkrishna Dhakate</t>
-  </si>
-  <si>
-    <t>2023amb034.jayant@students.iiests.ac.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e7d5536-27a1-465a-8c73-5cd92cd9338a</t>
-  </si>
-  <si>
-    <t>Yash Avinash Mahajan</t>
-  </si>
-  <si>
-    <t>pheonixnightshade521@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e23b24fc-0c2c-4ee1-963b-111b227815fc</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ananta</t>
-  </si>
-  <si>
-    <t>anantapandey0411@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f799a4a4-d4d7-4126-adb5-01f3db65d2ec</t>
-  </si>
-  <si>
-    <t>Sagnik Jana</t>
-  </si>
-  <si>
-    <t>janasagnik66@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17f9da92-f7d7-49e8-b5d8-861fa5fc15b3</t>
-  </si>
-  <si>
-    <t>Swarnima Kumari</t>
-  </si>
-  <si>
-    <t>professionalworkmanage321@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e79bf61-0986-4397-98d3-266da50764f3</t>
-  </si>
-  <si>
-    <t>Manik</t>
-  </si>
-  <si>
-    <t>sheoranmanik@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3813f01e-219b-4902-8884-3558dedcd697</t>
-  </si>
-  <si>
-    <t>Goutam Samanta</t>
-  </si>
-  <si>
-    <t>nemaisamanta30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/371027ef-0b0c-43c7-9cba-064f5d0aa32f</t>
-  </si>
-  <si>
-    <t>Abhirup Saha</t>
-  </si>
-  <si>
-    <t>abhi06622@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2f6f0a8-4eba-45ac-baa4-6dfcadc60ac6</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Uttam Mahata</t>
-  </si>
-  <si>
-    <t>mahatauttam2004@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9b49d841-1db9-4d55-988f-fdf6bdd6a557</t>
-  </si>
-  <si>
-    <t>Ramkrishna kumar</t>
-  </si>
-  <si>
-    <t>kramkrishna121@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/aa090534-9cba-42e5-abe1-edffb1fa81bf</t>
-  </si>
-  <si>
-    <t>Diya Ghosh</t>
-  </si>
-  <si>
-    <t>diya1692005ne@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/26bf1c95-c66e-4a83-bcea-dd684c86fac1</t>
-  </si>
-  <si>
-    <t>Mansi Mehra</t>
-  </si>
-  <si>
-    <t>mansi2004mehra18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c5166d9d-a202-4f09-84c4-1238317c310b</t>
-  </si>
-  <si>
     <t>Sumana Dangar</t>
   </si>
   <si>
@@ -835,7 +829,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/1ec99f0b-6fa7-44ba-bacb-cd8a2c321e9b</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Networking Fundamentals on Google Cloud [Skill Badge] | Analyze Images with the Cloud Vision API [Skill Badge]</t>
   </si>
   <si>
     <t>Abhishek kumar</t>
@@ -1132,6 +1126,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/87db1631-537a-436c-a8bb-69e1a05e8d62</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
     <t>Ahmad Raza Beg</t>
   </si>
   <si>
@@ -1372,7 +1369,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4f19249e-6118-40fb-b23d-9b16f4209b8a</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge]</t>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge]</t>
   </si>
   <si>
     <t>Mridul Goyal</t>
@@ -1540,6 +1537,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/881bc929-bed6-4002-bcba-8b3a7704bfa2</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
     <t>Akanshi Sharma</t>
   </si>
   <si>
@@ -1648,7 +1648,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4e3aee7e-2dbb-4dc1-8349-96b05b163f0a</t>
   </si>
   <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Develop GenAI Apps with Gemini and Streamlit [Skill Badge]</t>
+    <t>Level 3: Google Cloud Adventures [Game] | Diwali in The Arcade [Game]</t>
   </si>
   <si>
     <t>Suchana Hazra</t>
@@ -1658,6 +1658,9 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/320372c7-178c-4672-8110-031bd5fc5f52</t>
+  </si>
+  <si>
+    <t>App Engine: 3 Ways [Skill Badge]</t>
   </si>
   <si>
     <t>Siddharth Sen</t>
@@ -2566,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BC980D-5199-4875-BF2C-E548BEABAC29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA98F09-4ABC-44CC-AFD2-E1393810884B}">
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2810,24 +2813,27 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2847,13 +2853,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -2873,13 +2879,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -2899,13 +2905,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -2925,13 +2931,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2951,13 +2957,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2977,13 +2983,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2995,10 +3001,10 @@
         <v>15</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3082,24 +3088,24 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -3119,13 +3125,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -3145,13 +3151,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -3166,24 +3172,24 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -3203,13 +3209,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -3229,13 +3235,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -3256,18 +3262,18 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -3282,13 +3288,13 @@
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -3296,10 +3302,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
         <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -3314,24 +3320,24 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -3346,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3354,13 +3360,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
         <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>103</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3380,13 +3386,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>106</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -3406,13 +3412,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
         <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -3430,18 +3436,18 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>110</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -3461,13 +3467,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -3487,13 +3493,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -3513,45 +3519,45 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
         <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35">
-        <v>15</v>
-      </c>
-      <c r="H35" t="s">
-        <v>121</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>124</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -3571,13 +3577,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>126</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -3592,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3600,13 +3606,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -3626,13 +3632,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>134</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -3652,13 +3658,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
         <v>135</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>137</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -3678,13 +3684,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>139</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -3704,13 +3710,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
         <v>141</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>142</v>
-      </c>
-      <c r="C42" t="s">
-        <v>143</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3730,13 +3736,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
         <v>144</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>145</v>
-      </c>
-      <c r="C43" t="s">
-        <v>146</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3756,14 +3762,14 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
         <v>147</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>148</v>
       </c>
-      <c r="C44" t="s">
-        <v>149</v>
-      </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
@@ -3777,24 +3783,24 @@
         <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
         <v>150</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>151</v>
-      </c>
-      <c r="C45" t="s">
-        <v>152</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
@@ -3812,18 +3818,18 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
         <v>153</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>154</v>
-      </c>
-      <c r="C46" t="s">
-        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3841,19 +3847,19 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s">
         <v>156</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>157</v>
       </c>
-      <c r="C47" t="s">
-        <v>158</v>
-      </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
@@ -3867,25 +3873,25 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" t="s">
         <v>159</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>160</v>
       </c>
-      <c r="C48" t="s">
-        <v>161</v>
-      </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
@@ -3896,27 +3902,27 @@
         <v>15</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
         <v>163</v>
-      </c>
-      <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" t="s">
-        <v>165</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
@@ -3936,13 +3942,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
         <v>166</v>
-      </c>
-      <c r="B50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" t="s">
-        <v>168</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3962,13 +3968,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
         <v>169</v>
-      </c>
-      <c r="B51" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" t="s">
-        <v>171</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -3986,18 +3992,18 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
         <v>172</v>
-      </c>
-      <c r="B52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" t="s">
-        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -4017,13 +4023,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
         <v>175</v>
-      </c>
-      <c r="B53" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" t="s">
-        <v>177</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -4038,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4046,13 +4052,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" t="s">
         <v>179</v>
-      </c>
-      <c r="B54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" t="s">
-        <v>181</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -4072,13 +4078,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
         <v>182</v>
-      </c>
-      <c r="B55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" t="s">
-        <v>184</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -4098,13 +4104,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
         <v>185</v>
-      </c>
-      <c r="B56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" t="s">
-        <v>187</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -4124,14 +4130,14 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
         <v>188</v>
       </c>
-      <c r="B57" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" t="s">
-        <v>190</v>
-      </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
@@ -4142,27 +4148,27 @@
         <v>15</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" t="s">
         <v>191</v>
-      </c>
-      <c r="B58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" t="s">
-        <v>193</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -4182,13 +4188,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" t="s">
         <v>194</v>
-      </c>
-      <c r="B59" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" t="s">
-        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
@@ -4206,19 +4212,19 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
         <v>197</v>
       </c>
-      <c r="B60" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" t="s">
-        <v>199</v>
-      </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
@@ -4229,27 +4235,27 @@
         <v>15</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -4264,24 +4270,24 @@
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -4301,28 +4307,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
         <v>208</v>
-      </c>
-      <c r="B63" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63">
-        <v>7</v>
-      </c>
-      <c r="H63" t="s">
-        <v>211</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4330,13 +4336,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -4348,27 +4354,27 @@
         <v>15</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -4388,13 +4394,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -4414,13 +4420,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -4443,13 +4449,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -4469,13 +4475,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -4490,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4498,13 +4504,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -4524,13 +4530,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -4550,13 +4556,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -4576,13 +4582,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -4597,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -4605,14 +4611,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" t="s">
         <v>243</v>
       </c>
-      <c r="B74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C74" t="s">
-        <v>245</v>
-      </c>
       <c r="D74" t="s">
         <v>13</v>
       </c>
@@ -4626,24 +4632,24 @@
         <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" t="s">
         <v>246</v>
-      </c>
-      <c r="B75" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" t="s">
-        <v>248</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -4658,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4666,13 +4672,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" t="s">
         <v>250</v>
-      </c>
-      <c r="B76" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" t="s">
-        <v>252</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -4690,18 +4696,18 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="s">
         <v>253</v>
-      </c>
-      <c r="B77" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" t="s">
-        <v>255</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -4721,13 +4727,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -4747,13 +4753,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" t="s">
         <v>258</v>
-      </c>
-      <c r="B79" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" t="s">
-        <v>260</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -4768,7 +4774,7 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4776,13 +4782,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" t="s">
         <v>261</v>
-      </c>
-      <c r="B80" t="s">
-        <v>262</v>
-      </c>
-      <c r="C80" t="s">
-        <v>263</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -4797,7 +4803,7 @@
         <v>7</v>
       </c>
       <c r="H80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4805,13 +4811,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" t="s">
         <v>265</v>
-      </c>
-      <c r="B81" t="s">
-        <v>266</v>
-      </c>
-      <c r="C81" t="s">
-        <v>267</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -4826,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4834,45 +4840,45 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s">
         <v>268</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
         <v>269</v>
-      </c>
-      <c r="C82" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82">
-        <v>9</v>
-      </c>
-      <c r="H82" t="s">
-        <v>271</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" t="s">
         <v>272</v>
-      </c>
-      <c r="B83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" t="s">
-        <v>274</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -4892,13 +4898,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" t="s">
         <v>275</v>
-      </c>
-      <c r="B84" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" t="s">
-        <v>277</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -4916,18 +4922,18 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" t="s">
         <v>278</v>
-      </c>
-      <c r="B85" t="s">
-        <v>279</v>
-      </c>
-      <c r="C85" t="s">
-        <v>280</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -4947,13 +4953,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" t="s">
         <v>281</v>
-      </c>
-      <c r="B86" t="s">
-        <v>282</v>
-      </c>
-      <c r="C86" t="s">
-        <v>283</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -4973,13 +4979,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" t="s">
         <v>284</v>
-      </c>
-      <c r="B87" t="s">
-        <v>285</v>
-      </c>
-      <c r="C87" t="s">
-        <v>286</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -4999,13 +5005,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" t="s">
         <v>287</v>
-      </c>
-      <c r="B88" t="s">
-        <v>288</v>
-      </c>
-      <c r="C88" t="s">
-        <v>289</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -5025,13 +5031,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" t="s">
         <v>290</v>
-      </c>
-      <c r="B89" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" t="s">
-        <v>292</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -5051,13 +5057,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>291</v>
+      </c>
+      <c r="B90" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" t="s">
         <v>293</v>
-      </c>
-      <c r="B90" t="s">
-        <v>294</v>
-      </c>
-      <c r="C90" t="s">
-        <v>295</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -5072,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5080,45 +5086,45 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" t="s">
         <v>296</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
         <v>297</v>
-      </c>
-      <c r="C91" t="s">
-        <v>298</v>
-      </c>
-      <c r="D91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91">
-        <v>14</v>
-      </c>
-      <c r="H91" t="s">
-        <v>299</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>298</v>
+      </c>
+      <c r="B92" t="s">
+        <v>299</v>
+      </c>
+      <c r="C92" t="s">
         <v>300</v>
-      </c>
-      <c r="B92" t="s">
-        <v>301</v>
-      </c>
-      <c r="C92" t="s">
-        <v>302</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -5138,13 +5144,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" t="s">
+        <v>302</v>
+      </c>
+      <c r="C93" t="s">
         <v>303</v>
-      </c>
-      <c r="B93" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" t="s">
-        <v>305</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -5159,24 +5165,24 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94" t="s">
+        <v>305</v>
+      </c>
+      <c r="C94" t="s">
         <v>306</v>
-      </c>
-      <c r="B94" t="s">
-        <v>307</v>
-      </c>
-      <c r="C94" t="s">
-        <v>308</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -5196,13 +5202,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>307</v>
+      </c>
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
         <v>309</v>
-      </c>
-      <c r="B95" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" t="s">
-        <v>311</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -5222,13 +5228,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" t="s">
         <v>312</v>
-      </c>
-      <c r="B96" t="s">
-        <v>313</v>
-      </c>
-      <c r="C96" t="s">
-        <v>314</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -5243,24 +5249,24 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>313</v>
+      </c>
+      <c r="B97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" t="s">
         <v>315</v>
-      </c>
-      <c r="B97" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" t="s">
-        <v>317</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -5280,13 +5286,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>316</v>
+      </c>
+      <c r="B98" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" t="s">
         <v>318</v>
-      </c>
-      <c r="B98" t="s">
-        <v>319</v>
-      </c>
-      <c r="C98" t="s">
-        <v>320</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -5301,24 +5307,24 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" t="s">
         <v>322</v>
-      </c>
-      <c r="B99" t="s">
-        <v>323</v>
-      </c>
-      <c r="C99" t="s">
-        <v>324</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -5338,13 +5344,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>323</v>
+      </c>
+      <c r="B100" t="s">
+        <v>324</v>
+      </c>
+      <c r="C100" t="s">
         <v>325</v>
-      </c>
-      <c r="B100" t="s">
-        <v>326</v>
-      </c>
-      <c r="C100" t="s">
-        <v>327</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -5364,13 +5370,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" t="s">
         <v>328</v>
-      </c>
-      <c r="B101" t="s">
-        <v>329</v>
-      </c>
-      <c r="C101" t="s">
-        <v>330</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -5390,13 +5396,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" t="s">
         <v>331</v>
-      </c>
-      <c r="B102" t="s">
-        <v>332</v>
-      </c>
-      <c r="C102" t="s">
-        <v>333</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -5416,13 +5422,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>332</v>
+      </c>
+      <c r="B103" t="s">
+        <v>333</v>
+      </c>
+      <c r="C103" t="s">
         <v>334</v>
-      </c>
-      <c r="B103" t="s">
-        <v>335</v>
-      </c>
-      <c r="C103" t="s">
-        <v>336</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -5442,14 +5448,14 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" t="s">
+        <v>336</v>
+      </c>
+      <c r="C104" t="s">
         <v>337</v>
       </c>
-      <c r="B104" t="s">
-        <v>338</v>
-      </c>
-      <c r="C104" t="s">
-        <v>339</v>
-      </c>
       <c r="D104" t="s">
         <v>13</v>
       </c>
@@ -5460,7 +5466,10 @@
         <v>15</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>25</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -5468,13 +5477,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" t="s">
+        <v>339</v>
+      </c>
+      <c r="C105" t="s">
         <v>340</v>
-      </c>
-      <c r="B105" t="s">
-        <v>341</v>
-      </c>
-      <c r="C105" t="s">
-        <v>342</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
@@ -5494,13 +5503,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" t="s">
         <v>343</v>
-      </c>
-      <c r="B106" t="s">
-        <v>344</v>
-      </c>
-      <c r="C106" t="s">
-        <v>345</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -5515,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5523,13 +5532,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>344</v>
+      </c>
+      <c r="B107" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107" t="s">
         <v>346</v>
-      </c>
-      <c r="B107" t="s">
-        <v>347</v>
-      </c>
-      <c r="C107" t="s">
-        <v>348</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -5549,13 +5558,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" t="s">
         <v>349</v>
-      </c>
-      <c r="B108" t="s">
-        <v>350</v>
-      </c>
-      <c r="C108" t="s">
-        <v>351</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -5575,13 +5584,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>350</v>
+      </c>
+      <c r="B109" t="s">
+        <v>351</v>
+      </c>
+      <c r="C109" t="s">
         <v>352</v>
-      </c>
-      <c r="B109" t="s">
-        <v>353</v>
-      </c>
-      <c r="C109" t="s">
-        <v>354</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5601,13 +5610,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>353</v>
+      </c>
+      <c r="B110" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" t="s">
         <v>355</v>
-      </c>
-      <c r="B110" t="s">
-        <v>356</v>
-      </c>
-      <c r="C110" t="s">
-        <v>357</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -5627,13 +5636,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>356</v>
+      </c>
+      <c r="B111" t="s">
+        <v>357</v>
+      </c>
+      <c r="C111" t="s">
         <v>358</v>
-      </c>
-      <c r="B111" t="s">
-        <v>359</v>
-      </c>
-      <c r="C111" t="s">
-        <v>360</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -5653,13 +5662,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>359</v>
+      </c>
+      <c r="B112" t="s">
+        <v>360</v>
+      </c>
+      <c r="C112" t="s">
         <v>361</v>
-      </c>
-      <c r="B112" t="s">
-        <v>362</v>
-      </c>
-      <c r="C112" t="s">
-        <v>363</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -5679,13 +5688,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113" t="s">
+        <v>363</v>
+      </c>
+      <c r="C113" t="s">
         <v>364</v>
-      </c>
-      <c r="B113" t="s">
-        <v>365</v>
-      </c>
-      <c r="C113" t="s">
-        <v>366</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -5705,42 +5714,45 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114" t="s">
         <v>367</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114" t="s">
         <v>368</v>
-      </c>
-      <c r="C114" t="s">
-        <v>369</v>
-      </c>
-      <c r="D114" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>369</v>
+      </c>
+      <c r="B115" t="s">
         <v>370</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>371</v>
-      </c>
-      <c r="C115" t="s">
-        <v>372</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -5760,13 +5772,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" t="s">
         <v>373</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>374</v>
-      </c>
-      <c r="C116" t="s">
-        <v>375</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -5786,13 +5798,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>375</v>
+      </c>
+      <c r="B117" t="s">
         <v>376</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>377</v>
-      </c>
-      <c r="C117" t="s">
-        <v>378</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -5812,13 +5824,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>378</v>
+      </c>
+      <c r="B118" t="s">
         <v>379</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>380</v>
-      </c>
-      <c r="C118" t="s">
-        <v>381</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -5838,13 +5850,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" t="s">
         <v>382</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>383</v>
-      </c>
-      <c r="C119" t="s">
-        <v>384</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -5864,13 +5876,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>384</v>
+      </c>
+      <c r="B120" t="s">
         <v>385</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>386</v>
-      </c>
-      <c r="C120" t="s">
-        <v>387</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -5890,13 +5902,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>387</v>
+      </c>
+      <c r="B121" t="s">
         <v>388</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>389</v>
-      </c>
-      <c r="C121" t="s">
-        <v>390</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -5916,13 +5928,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>390</v>
+      </c>
+      <c r="B122" t="s">
         <v>391</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>392</v>
-      </c>
-      <c r="C122" t="s">
-        <v>393</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -5942,13 +5954,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>393</v>
+      </c>
+      <c r="B123" t="s">
         <v>394</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>395</v>
-      </c>
-      <c r="C123" t="s">
-        <v>396</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -5968,13 +5980,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>396</v>
+      </c>
+      <c r="B124" t="s">
         <v>397</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>398</v>
-      </c>
-      <c r="C124" t="s">
-        <v>399</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -5994,14 +6006,14 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>399</v>
+      </c>
+      <c r="B125" t="s">
         <v>400</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>401</v>
       </c>
-      <c r="C125" t="s">
-        <v>402</v>
-      </c>
       <c r="D125" t="s">
         <v>13</v>
       </c>
@@ -6012,27 +6024,27 @@
         <v>15</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>402</v>
+      </c>
+      <c r="B126" t="s">
         <v>403</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>404</v>
-      </c>
-      <c r="C126" t="s">
-        <v>405</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -6047,24 +6059,24 @@
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>405</v>
+      </c>
+      <c r="B127" t="s">
         <v>406</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>407</v>
-      </c>
-      <c r="C127" t="s">
-        <v>408</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -6084,13 +6096,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>408</v>
+      </c>
+      <c r="B128" t="s">
         <v>409</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>410</v>
-      </c>
-      <c r="C128" t="s">
-        <v>411</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -6108,18 +6120,18 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>411</v>
+      </c>
+      <c r="B129" t="s">
         <v>412</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>413</v>
-      </c>
-      <c r="C129" t="s">
-        <v>414</v>
       </c>
       <c r="D129" t="s">
         <v>13</v>
@@ -6137,18 +6149,18 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>414</v>
+      </c>
+      <c r="B130" t="s">
         <v>415</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>416</v>
-      </c>
-      <c r="C130" t="s">
-        <v>417</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -6163,24 +6175,24 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>418</v>
+      </c>
+      <c r="B131" t="s">
         <v>419</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>420</v>
-      </c>
-      <c r="C131" t="s">
-        <v>421</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -6200,13 +6212,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>421</v>
+      </c>
+      <c r="B132" t="s">
         <v>422</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>423</v>
-      </c>
-      <c r="C132" t="s">
-        <v>424</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -6226,13 +6238,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>424</v>
+      </c>
+      <c r="B133" t="s">
         <v>425</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>426</v>
-      </c>
-      <c r="C133" t="s">
-        <v>427</v>
       </c>
       <c r="D133" t="s">
         <v>35</v>
@@ -6252,13 +6264,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>427</v>
+      </c>
+      <c r="B134" t="s">
         <v>428</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>429</v>
-      </c>
-      <c r="C134" t="s">
-        <v>430</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -6279,18 +6291,18 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" t="s">
         <v>431</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>432</v>
-      </c>
-      <c r="C135" t="s">
-        <v>433</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -6310,13 +6322,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>433</v>
+      </c>
+      <c r="B136" t="s">
         <v>434</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>435</v>
-      </c>
-      <c r="C136" t="s">
-        <v>436</v>
       </c>
       <c r="D136" t="s">
         <v>35</v>
@@ -6336,13 +6348,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137" t="s">
         <v>437</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>438</v>
-      </c>
-      <c r="C137" t="s">
-        <v>439</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -6362,13 +6374,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B138" t="s">
+        <v>439</v>
+      </c>
+      <c r="C138" t="s">
         <v>440</v>
-      </c>
-      <c r="C138" t="s">
-        <v>441</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -6388,13 +6400,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>441</v>
+      </c>
+      <c r="B139" t="s">
         <v>442</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>443</v>
-      </c>
-      <c r="C139" t="s">
-        <v>444</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -6414,13 +6426,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>444</v>
+      </c>
+      <c r="B140" t="s">
         <v>445</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>446</v>
-      </c>
-      <c r="C140" t="s">
-        <v>447</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -6438,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
@@ -6446,42 +6458,42 @@
         <v>32</v>
       </c>
       <c r="B141" t="s">
+        <v>447</v>
+      </c>
+      <c r="C141" t="s">
         <v>448</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+      <c r="H141" t="s">
         <v>449</v>
-      </c>
-      <c r="D141" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141">
-        <v>4</v>
-      </c>
-      <c r="H141" t="s">
-        <v>450</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>450</v>
+      </c>
+      <c r="B142" t="s">
         <v>451</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>452</v>
-      </c>
-      <c r="C142" t="s">
-        <v>453</v>
       </c>
       <c r="D142" t="s">
         <v>13</v>
@@ -6501,13 +6513,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>453</v>
+      </c>
+      <c r="B143" t="s">
         <v>454</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>455</v>
-      </c>
-      <c r="C143" t="s">
-        <v>456</v>
       </c>
       <c r="D143" t="s">
         <v>13</v>
@@ -6527,13 +6539,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>456</v>
+      </c>
+      <c r="B144" t="s">
         <v>457</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>458</v>
-      </c>
-      <c r="C144" t="s">
-        <v>459</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
@@ -6553,13 +6565,13 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>459</v>
+      </c>
+      <c r="B145" t="s">
         <v>460</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>461</v>
-      </c>
-      <c r="C145" t="s">
-        <v>462</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
@@ -6574,24 +6586,24 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>462</v>
+      </c>
+      <c r="B146" t="s">
         <v>463</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>464</v>
-      </c>
-      <c r="C146" t="s">
-        <v>465</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
@@ -6611,13 +6623,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>465</v>
+      </c>
+      <c r="B147" t="s">
         <v>466</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>467</v>
-      </c>
-      <c r="C147" t="s">
-        <v>468</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
@@ -6637,13 +6649,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>468</v>
+      </c>
+      <c r="B148" t="s">
         <v>469</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>470</v>
-      </c>
-      <c r="C148" t="s">
-        <v>471</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
@@ -6663,13 +6675,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>471</v>
+      </c>
+      <c r="B149" t="s">
         <v>472</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>473</v>
-      </c>
-      <c r="C149" t="s">
-        <v>474</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
@@ -6689,13 +6701,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B150" t="s">
+        <v>474</v>
+      </c>
+      <c r="C150" t="s">
         <v>475</v>
-      </c>
-      <c r="C150" t="s">
-        <v>476</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
@@ -6715,13 +6727,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>476</v>
+      </c>
+      <c r="B151" t="s">
         <v>477</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>478</v>
-      </c>
-      <c r="C151" t="s">
-        <v>479</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
@@ -6736,7 +6748,7 @@
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6744,13 +6756,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>479</v>
+      </c>
+      <c r="B152" t="s">
         <v>480</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>481</v>
-      </c>
-      <c r="C152" t="s">
-        <v>482</v>
       </c>
       <c r="D152" t="s">
         <v>13</v>
@@ -6765,25 +6777,25 @@
         <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s">
+        <v>483</v>
+      </c>
+      <c r="C153" t="s">
         <v>484</v>
       </c>
-      <c r="C153" t="s">
-        <v>485</v>
-      </c>
       <c r="D153" t="s">
         <v>13</v>
       </c>
@@ -6797,25 +6809,25 @@
         <v>15</v>
       </c>
       <c r="H153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>485</v>
+      </c>
+      <c r="B154" t="s">
         <v>486</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>487</v>
       </c>
-      <c r="C154" t="s">
-        <v>488</v>
-      </c>
       <c r="D154" t="s">
         <v>13</v>
       </c>
@@ -6826,10 +6838,10 @@
         <v>15</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -6837,13 +6849,13 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>488</v>
+      </c>
+      <c r="B155" t="s">
         <v>489</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>490</v>
-      </c>
-      <c r="C155" t="s">
-        <v>491</v>
       </c>
       <c r="D155" t="s">
         <v>13</v>
@@ -6863,13 +6875,13 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B156" t="s">
+        <v>491</v>
+      </c>
+      <c r="C156" t="s">
         <v>492</v>
-      </c>
-      <c r="C156" t="s">
-        <v>493</v>
       </c>
       <c r="D156" t="s">
         <v>35</v>
@@ -6889,13 +6901,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>493</v>
+      </c>
+      <c r="B157" t="s">
         <v>494</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>495</v>
-      </c>
-      <c r="C157" t="s">
-        <v>496</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
@@ -6913,18 +6925,18 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>496</v>
+      </c>
+      <c r="B158" t="s">
         <v>497</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>498</v>
-      </c>
-      <c r="C158" t="s">
-        <v>499</v>
       </c>
       <c r="D158" t="s">
         <v>13</v>
@@ -6944,13 +6956,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>499</v>
+      </c>
+      <c r="B159" t="s">
         <v>500</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>501</v>
-      </c>
-      <c r="C159" t="s">
-        <v>502</v>
       </c>
       <c r="D159" t="s">
         <v>35</v>
@@ -6970,34 +6982,34 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>502</v>
+      </c>
+      <c r="B160" t="s">
         <v>503</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>504</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160">
+        <v>6</v>
+      </c>
+      <c r="H160" t="s">
         <v>505</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160">
-        <v>3</v>
-      </c>
-      <c r="H160" t="s">
-        <v>101</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
@@ -7288,7 +7300,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B172" t="s">
         <v>538</v>
@@ -7314,7 +7326,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B173" t="s">
         <v>540</v>
@@ -7329,19 +7341,19 @@
         <v>15</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G173">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H173" t="s">
+        <v>120</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
         <v>542</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="J173" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
@@ -7364,7 +7376,10 @@
         <v>15</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>546</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -7372,13 +7387,13 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B175" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C175" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -7398,13 +7413,13 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B176" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C176" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
@@ -7424,13 +7439,13 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B177" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C177" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
@@ -7450,13 +7465,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B178" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C178" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
@@ -7479,10 +7494,10 @@
         <v>506</v>
       </c>
       <c r="B179" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C179" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D179" t="s">
         <v>35</v>
@@ -7502,13 +7517,13 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B180" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C180" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D180" t="s">
         <v>35</v>
@@ -7528,13 +7543,13 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B181" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C181" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D181" t="s">
         <v>13</v>
@@ -7555,18 +7570,18 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B182" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C182" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>
